--- a/Output Tables/UIUCAllResults.xlsx
+++ b/Output Tables/UIUCAllResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="517">
   <si>
     <t>compName</t>
   </si>
@@ -214,6 +214,456 @@
   </si>
   <si>
     <t>PassedTechOnTime</t>
+  </si>
+  <si>
+    <t>compName</t>
+  </si>
+  <si>
+    <t>Rochester 2019</t>
+  </si>
+  <si>
+    <t>California 2019</t>
+  </si>
+  <si>
+    <t>Tennessee 2019</t>
+  </si>
+  <si>
+    <t>Oregon 2018</t>
+  </si>
+  <si>
+    <t>Kansas 2018</t>
+  </si>
+  <si>
+    <t>Maryland 2018</t>
+  </si>
+  <si>
+    <t>Illinois 2017</t>
+  </si>
+  <si>
+    <t>Kansas 2017</t>
+  </si>
+  <si>
+    <t>California 2017</t>
+  </si>
+  <si>
+    <t>Rochester 2016</t>
+  </si>
+  <si>
+    <t>Tennessee 2016</t>
+  </si>
+  <si>
+    <t>California 2016</t>
+  </si>
+  <si>
+    <t>Maryland 2015</t>
+  </si>
+  <si>
+    <t>Auburn 2015</t>
+  </si>
+  <si>
+    <t>Oregon 2015</t>
+  </si>
+  <si>
+    <t>Illinois 2014</t>
+  </si>
+  <si>
+    <t>Kansas 2014</t>
+  </si>
+  <si>
+    <t>Tennessee 2013</t>
+  </si>
+  <si>
+    <t>Washington 2013</t>
+  </si>
+  <si>
+    <t>Wisconsin 2012</t>
+  </si>
+  <si>
+    <t>Oregon 2012</t>
+  </si>
+  <si>
+    <t>Illinois 2011</t>
+  </si>
+  <si>
+    <t>Kansas 2011</t>
+  </si>
+  <si>
+    <t>Rochester 2010</t>
+  </si>
+  <si>
+    <t>Washington 2010</t>
+  </si>
+  <si>
+    <t>Wisconsin 2009</t>
+  </si>
+  <si>
+    <t>Oregon 2009</t>
+  </si>
+  <si>
+    <t>Tennessee 2008</t>
+  </si>
+  <si>
+    <t>Montreal 2008</t>
+  </si>
+  <si>
+    <t>overallRank</t>
+  </si>
+  <si>
+    <t>carNumber</t>
+  </si>
+  <si>
+    <t>universityName</t>
+  </si>
+  <si>
+    <t>Univ of Illinois - Urbana Champaign</t>
+  </si>
+  <si>
+    <t>teamName</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t>Offroad Illini</t>
+  </si>
+  <si>
+    <t>Off Road Illini</t>
+  </si>
+  <si>
+    <t>Off-road Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Road Illini </t>
+  </si>
+  <si>
+    <t>Offroad Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OffRoadIllini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Road Illini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Road Illini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offroad Illini </t>
+  </si>
+  <si>
+    <t>Off Road Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini 2</t>
+  </si>
+  <si>
+    <t>overallScore</t>
+  </si>
+  <si>
+    <t>overallDynamic</t>
+  </si>
+  <si>
+    <t>overallStatic</t>
+  </si>
+  <si>
+    <t>costScore</t>
+  </si>
+  <si>
+    <t>designScore</t>
+  </si>
+  <si>
+    <t>salesScore</t>
+  </si>
+  <si>
+    <t>techScore</t>
+  </si>
+  <si>
+    <t>accelScore</t>
+  </si>
+  <si>
+    <t>landManeuScore</t>
+  </si>
+  <si>
+    <t>rockCrawlScore</t>
+  </si>
+  <si>
+    <t>mudBogScore</t>
+  </si>
+  <si>
+    <t>hillClimbScore</t>
+  </si>
+  <si>
+    <t>sledPullScore</t>
+  </si>
+  <si>
+    <t>susTracScore</t>
+  </si>
+  <si>
+    <t>waterManeuScore</t>
+  </si>
+  <si>
+    <t>enduroScore</t>
+  </si>
+  <si>
+    <t>techPenalty</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>registered</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>techPassed</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>PassedTechOnTime</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>compName</t>
+  </si>
+  <si>
+    <t>Rochester 2019</t>
+  </si>
+  <si>
+    <t>California 2019</t>
+  </si>
+  <si>
+    <t>Tennessee 2019</t>
+  </si>
+  <si>
+    <t>Oregon 2018</t>
+  </si>
+  <si>
+    <t>Kansas 2018</t>
+  </si>
+  <si>
+    <t>Maryland 2018</t>
+  </si>
+  <si>
+    <t>Illinois 2017</t>
+  </si>
+  <si>
+    <t>Kansas 2017</t>
+  </si>
+  <si>
+    <t>California 2017</t>
+  </si>
+  <si>
+    <t>Rochester 2016</t>
+  </si>
+  <si>
+    <t>Tennessee 2016</t>
+  </si>
+  <si>
+    <t>California 2016</t>
+  </si>
+  <si>
+    <t>Maryland 2015</t>
+  </si>
+  <si>
+    <t>Auburn 2015</t>
+  </si>
+  <si>
+    <t>Oregon 2015</t>
+  </si>
+  <si>
+    <t>Illinois 2014</t>
+  </si>
+  <si>
+    <t>Kansas 2014</t>
+  </si>
+  <si>
+    <t>Tennessee 2013</t>
+  </si>
+  <si>
+    <t>Washington 2013</t>
+  </si>
+  <si>
+    <t>Wisconsin 2012</t>
+  </si>
+  <si>
+    <t>Oregon 2012</t>
+  </si>
+  <si>
+    <t>Illinois 2011</t>
+  </si>
+  <si>
+    <t>Kansas 2011</t>
+  </si>
+  <si>
+    <t>Rochester 2010</t>
+  </si>
+  <si>
+    <t>Washington 2010</t>
+  </si>
+  <si>
+    <t>Wisconsin 2009</t>
+  </si>
+  <si>
+    <t>Oregon 2009</t>
+  </si>
+  <si>
+    <t>Tennessee 2008</t>
+  </si>
+  <si>
+    <t>Montreal 2008</t>
+  </si>
+  <si>
+    <t>overallRank</t>
+  </si>
+  <si>
+    <t>carNumber</t>
+  </si>
+  <si>
+    <t>universityName</t>
+  </si>
+  <si>
+    <t>Univ of Illinois - Urbana Champaign</t>
+  </si>
+  <si>
+    <t>teamName</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t>Offroad Illini</t>
+  </si>
+  <si>
+    <t>Off Road Illini</t>
+  </si>
+  <si>
+    <t>Off-road Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Road Illini </t>
+  </si>
+  <si>
+    <t>Offroad Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OffRoadIllini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Road Illini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Road Illini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offroad Illini </t>
+  </si>
+  <si>
+    <t>Off Road Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini 2</t>
+  </si>
+  <si>
+    <t>overallScore</t>
+  </si>
+  <si>
+    <t>overallDynamic</t>
+  </si>
+  <si>
+    <t>overallStatic</t>
+  </si>
+  <si>
+    <t>costScore</t>
+  </si>
+  <si>
+    <t>designScore</t>
+  </si>
+  <si>
+    <t>salesScore</t>
+  </si>
+  <si>
+    <t>techScore</t>
+  </si>
+  <si>
+    <t>accelScore</t>
+  </si>
+  <si>
+    <t>landManeuScore</t>
+  </si>
+  <si>
+    <t>rockCrawlScore</t>
+  </si>
+  <si>
+    <t>mudBogScore</t>
+  </si>
+  <si>
+    <t>hillClimbScore</t>
+  </si>
+  <si>
+    <t>sledPullScore</t>
+  </si>
+  <si>
+    <t>susTracScore</t>
+  </si>
+  <si>
+    <t>waterManeuScore</t>
+  </si>
+  <si>
+    <t>enduroScore</t>
+  </si>
+  <si>
+    <t>techPenalty</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>registered</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>techPassed</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>PassedTechOnTime</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
   <si>
     <t>compName</t>
@@ -1134,7 +1584,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1148,11 +1598,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1160,6 +1612,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1202,87 +1656,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>442</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>322</v>
+        <v>472</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>323</v>
+        <v>473</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>324</v>
+        <v>474</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>326</v>
+        <v>476</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>342</v>
+        <v>492</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>343</v>
+        <v>493</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>344</v>
+        <v>494</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>345</v>
+        <v>495</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>346</v>
+        <v>496</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>347</v>
+        <v>497</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>348</v>
+        <v>498</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>349</v>
+        <v>499</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>352</v>
+        <v>502</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>353</v>
+        <v>503</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>354</v>
+        <v>504</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>355</v>
+        <v>505</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>356</v>
+        <v>506</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>357</v>
+        <v>507</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>358</v>
+        <v>508</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>359</v>
+        <v>509</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>360</v>
+        <v>510</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>362</v>
+        <v>512</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>365</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>443</v>
       </c>
       <c r="B2" s="0">
         <v>29</v>
@@ -1291,10 +1745,10 @@
         <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>327</v>
+        <v>477</v>
       </c>
       <c r="F2" s="0">
         <v>624.89999999999998</v>
@@ -1351,18 +1805,18 @@
         <v>0</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>361</v>
+        <v>511</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>363</v>
+        <v>513</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>366</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>294</v>
+        <v>444</v>
       </c>
       <c r="B3" s="0">
         <v>36</v>
@@ -1371,10 +1825,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>327</v>
+        <v>477</v>
       </c>
       <c r="F3" s="0">
         <v>575.27999999999997</v>
@@ -1431,18 +1885,18 @@
         <v>0</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>361</v>
+        <v>511</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>363</v>
+        <v>513</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>366</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>295</v>
+        <v>445</v>
       </c>
       <c r="B4" s="0">
         <v>30</v>
@@ -1451,10 +1905,10 @@
         <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>327</v>
+        <v>477</v>
       </c>
       <c r="F4" s="0">
         <v>528.13999999999999</v>
@@ -1511,18 +1965,18 @@
         <v>0</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>361</v>
+        <v>511</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>363</v>
+        <v>513</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>366</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>296</v>
+        <v>446</v>
       </c>
       <c r="B5" s="0">
         <v>28</v>
@@ -1531,10 +1985,10 @@
         <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>327</v>
+        <v>477</v>
       </c>
       <c r="F5" s="0">
         <v>580.5</v>
@@ -1591,18 +2045,18 @@
         <v>0</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>361</v>
+        <v>511</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>363</v>
+        <v>513</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>366</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>297</v>
+        <v>447</v>
       </c>
       <c r="B6" s="0">
         <v>32</v>
@@ -1611,10 +2065,10 @@
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>327</v>
+        <v>477</v>
       </c>
       <c r="F6" s="0">
         <v>558.16999999999996</v>
@@ -1671,18 +2125,18 @@
         <v>0</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>361</v>
+        <v>511</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>363</v>
+        <v>513</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>366</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>298</v>
+        <v>448</v>
       </c>
       <c r="B7" s="0">
         <v>34</v>
@@ -1691,10 +2145,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>327</v>
+        <v>477</v>
       </c>
       <c r="F7" s="0">
         <v>504.32999999999998</v>
@@ -1751,18 +2205,18 @@
         <v>0</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>361</v>
+        <v>511</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>363</v>
+        <v>513</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>366</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>299</v>
+        <v>449</v>
       </c>
       <c r="B8" s="0">
         <v>58</v>
@@ -1771,10 +2225,10 @@
         <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>328</v>
+        <v>478</v>
       </c>
       <c r="F8" s="0">
         <v>418.02999999999997</v>
@@ -1831,18 +2285,18 @@
         <v>0</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>361</v>
+        <v>511</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>363</v>
+        <v>513</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>366</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="B9" s="0">
         <v>48</v>
@@ -1851,10 +2305,10 @@
         <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>328</v>
+        <v>478</v>
       </c>
       <c r="F9" s="0">
         <v>373.13999999999999</v>
@@ -1911,18 +2365,18 @@
         <v>0</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>361</v>
+        <v>511</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>363</v>
+        <v>513</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>366</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="B10" s="0">
         <v>56</v>
@@ -1931,10 +2385,10 @@
         <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>328</v>
+        <v>478</v>
       </c>
       <c r="F10" s="0">
         <v>343.38</v>
@@ -1991,18 +2445,18 @@
         <v>0</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>361</v>
+        <v>511</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>363</v>
+        <v>513</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>366</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>302</v>
+        <v>452</v>
       </c>
       <c r="B11" s="0">
         <v>70</v>
@@ -2011,10 +2465,10 @@
         <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>329</v>
+        <v>479</v>
       </c>
       <c r="F11" s="0">
         <v>376.86000000000001</v>
@@ -2071,18 +2525,18 @@
         <v>0</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>361</v>
+        <v>511</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>363</v>
+        <v>513</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>366</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>303</v>
+        <v>453</v>
       </c>
       <c r="B12" s="0">
         <v>74</v>
@@ -2091,10 +2545,10 @@
         <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>329</v>
+        <v>479</v>
       </c>
       <c r="F12" s="0">
         <v>225.12</v>
@@ -2151,18 +2605,18 @@
         <v>0</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>361</v>
+        <v>511</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>363</v>
+        <v>513</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>366</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>304</v>
+        <v>454</v>
       </c>
       <c r="B13" s="0">
         <v>65</v>
@@ -2171,10 +2625,10 @@
         <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>329</v>
+        <v>479</v>
       </c>
       <c r="F13" s="0">
         <v>370.51999999999998</v>
@@ -2231,18 +2685,18 @@
         <v>0</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>361</v>
+        <v>511</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>363</v>
+        <v>513</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>366</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>305</v>
+        <v>455</v>
       </c>
       <c r="B14" s="0">
         <v>54</v>
@@ -2251,10 +2705,10 @@
         <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>330</v>
+        <v>480</v>
       </c>
       <c r="F14" s="0">
         <v>453.19</v>
@@ -2310,13 +2764,13 @@
       <c r="W14" s="0"/>
       <c r="X14" s="0"/>
       <c r="Y14" s="1" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="Z14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>306</v>
+        <v>456</v>
       </c>
       <c r="B15" s="0">
         <v>53</v>
@@ -2325,10 +2779,10 @@
         <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>331</v>
+        <v>481</v>
       </c>
       <c r="F15" s="0">
         <v>448.19</v>
@@ -2384,13 +2838,13 @@
       <c r="W15" s="0"/>
       <c r="X15" s="0"/>
       <c r="Y15" s="1" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="Z15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>307</v>
+        <v>457</v>
       </c>
       <c r="B16" s="0">
         <v>45</v>
@@ -2399,10 +2853,10 @@
         <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>331</v>
+        <v>481</v>
       </c>
       <c r="F16" s="0">
         <v>473.04000000000002</v>
@@ -2458,13 +2912,13 @@
       <c r="W16" s="0"/>
       <c r="X16" s="0"/>
       <c r="Y16" s="1" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="Z16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>308</v>
+        <v>458</v>
       </c>
       <c r="B17" s="0">
         <v>40</v>
@@ -2473,10 +2927,10 @@
         <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>332</v>
+        <v>482</v>
       </c>
       <c r="F17" s="0">
         <v>484.11000000000001</v>
@@ -2532,13 +2986,13 @@
       <c r="W17" s="0"/>
       <c r="X17" s="0"/>
       <c r="Y17" s="1" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="Z17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>309</v>
+        <v>459</v>
       </c>
       <c r="B18" s="0">
         <v>30</v>
@@ -2547,10 +3001,10 @@
         <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>332</v>
+        <v>482</v>
       </c>
       <c r="F18" s="0">
         <v>541.42999999999995</v>
@@ -2606,13 +3060,13 @@
       <c r="W18" s="0"/>
       <c r="X18" s="0"/>
       <c r="Y18" s="1" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="Z18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>310</v>
+        <v>460</v>
       </c>
       <c r="B19" s="0">
         <v>42</v>
@@ -2621,10 +3075,10 @@
         <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>333</v>
+        <v>483</v>
       </c>
       <c r="F19" s="0">
         <v>480.56999999999999</v>
@@ -2680,13 +3134,13 @@
       <c r="W19" s="0"/>
       <c r="X19" s="0"/>
       <c r="Y19" s="1" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="Z19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>311</v>
+        <v>461</v>
       </c>
       <c r="B20" s="0">
         <v>21</v>
@@ -2695,10 +3149,10 @@
         <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>334</v>
+        <v>484</v>
       </c>
       <c r="F20" s="0">
         <v>572.89999999999998</v>
@@ -2754,13 +3208,13 @@
       <c r="W20" s="0"/>
       <c r="X20" s="0"/>
       <c r="Y20" s="1" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="Z20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>312</v>
+        <v>462</v>
       </c>
       <c r="B21" s="0">
         <v>81</v>
@@ -2769,10 +3223,10 @@
         <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>335</v>
+        <v>485</v>
       </c>
       <c r="F21" s="0">
         <v>315.80000000000001</v>
@@ -2828,13 +3282,13 @@
       <c r="W21" s="0"/>
       <c r="X21" s="0"/>
       <c r="Y21" s="1" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="Z21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>313</v>
+        <v>463</v>
       </c>
       <c r="B22" s="0">
         <v>45</v>
@@ -2843,10 +3297,10 @@
         <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>336</v>
+        <v>486</v>
       </c>
       <c r="F22" s="0">
         <v>261.79000000000002</v>
@@ -2902,13 +3356,13 @@
       <c r="W22" s="0"/>
       <c r="X22" s="0"/>
       <c r="Y22" s="1" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="Z22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>314</v>
+        <v>464</v>
       </c>
       <c r="B23" s="0">
         <v>57</v>
@@ -2917,10 +3371,10 @@
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>336</v>
+        <v>486</v>
       </c>
       <c r="F23" s="0">
         <v>396.56999999999999</v>
@@ -2976,13 +3430,13 @@
       <c r="W23" s="0"/>
       <c r="X23" s="0"/>
       <c r="Y23" s="1" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="Z23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>315</v>
+        <v>465</v>
       </c>
       <c r="B24" s="0">
         <v>44</v>
@@ -2991,10 +3445,10 @@
         <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>336</v>
+        <v>486</v>
       </c>
       <c r="F24" s="0">
         <v>461.48000000000002</v>
@@ -3050,13 +3504,13 @@
       <c r="W24" s="0"/>
       <c r="X24" s="0"/>
       <c r="Y24" s="1" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="Z24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>316</v>
+        <v>466</v>
       </c>
       <c r="B25" s="0">
         <v>18</v>
@@ -3065,10 +3519,10 @@
         <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>337</v>
+        <v>487</v>
       </c>
       <c r="F25" s="0">
         <v>717.28999999999996</v>
@@ -3124,13 +3578,13 @@
       <c r="W25" s="0"/>
       <c r="X25" s="0"/>
       <c r="Y25" s="1" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="Z25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>317</v>
+        <v>467</v>
       </c>
       <c r="B26" s="0">
         <v>14</v>
@@ -3139,10 +3593,10 @@
         <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>338</v>
+        <v>488</v>
       </c>
       <c r="F26" s="0">
         <v>766.03999999999996</v>
@@ -3198,13 +3652,13 @@
       <c r="W26" s="0"/>
       <c r="X26" s="0"/>
       <c r="Y26" s="1" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="Z26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>318</v>
+        <v>468</v>
       </c>
       <c r="B27" s="0">
         <v>20</v>
@@ -3213,10 +3667,10 @@
         <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>339</v>
+        <v>489</v>
       </c>
       <c r="F27" s="0">
         <v>769.07000000000005</v>
@@ -3274,13 +3728,13 @@
       </c>
       <c r="X27" s="0"/>
       <c r="Y27" s="1" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="Z27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>319</v>
+        <v>469</v>
       </c>
       <c r="B28" s="0">
         <v>18</v>
@@ -3289,10 +3743,10 @@
         <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>339</v>
+        <v>489</v>
       </c>
       <c r="F28" s="0">
         <v>672.60000000000002</v>
@@ -3348,13 +3802,13 @@
       <c r="W28" s="0"/>
       <c r="X28" s="0"/>
       <c r="Y28" s="1" t="s">
-        <v>364</v>
+        <v>514</v>
       </c>
       <c r="Z28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>320</v>
+        <v>470</v>
       </c>
       <c r="B29" s="0">
         <v>53</v>
@@ -3363,10 +3817,10 @@
         <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="F29" s="0">
         <v>232.22999999999999</v>
@@ -3426,7 +3880,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>321</v>
+        <v>471</v>
       </c>
       <c r="B30" s="0">
         <v>63</v>
@@ -3435,10 +3889,10 @@
         <v>76</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>340</v>
+        <v>490</v>
       </c>
       <c r="F30" s="0">
         <v>440.13</v>
@@ -3486,7 +3940,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>321</v>
+        <v>471</v>
       </c>
       <c r="B31" s="0">
         <v>55</v>
@@ -3495,10 +3949,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>325</v>
+        <v>475</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>341</v>
+        <v>491</v>
       </c>
       <c r="F31" s="0">
         <v>473.77999999999997</v>

--- a/Output Tables/UIUCAllResults.xlsx
+++ b/Output Tables/UIUCAllResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="592">
   <si>
     <t>compName</t>
   </si>
@@ -214,6 +214,231 @@
   </si>
   <si>
     <t>PassedTechOnTime</t>
+  </si>
+  <si>
+    <t>compName</t>
+  </si>
+  <si>
+    <t>Rochester 2019</t>
+  </si>
+  <si>
+    <t>California 2019</t>
+  </si>
+  <si>
+    <t>Tennessee 2019</t>
+  </si>
+  <si>
+    <t>Oregon 2018</t>
+  </si>
+  <si>
+    <t>Kansas 2018</t>
+  </si>
+  <si>
+    <t>Maryland 2018</t>
+  </si>
+  <si>
+    <t>Illinois 2017</t>
+  </si>
+  <si>
+    <t>Kansas 2017</t>
+  </si>
+  <si>
+    <t>California 2017</t>
+  </si>
+  <si>
+    <t>Rochester 2016</t>
+  </si>
+  <si>
+    <t>Tennessee 2016</t>
+  </si>
+  <si>
+    <t>California 2016</t>
+  </si>
+  <si>
+    <t>Maryland 2015</t>
+  </si>
+  <si>
+    <t>Auburn 2015</t>
+  </si>
+  <si>
+    <t>Oregon 2015</t>
+  </si>
+  <si>
+    <t>Illinois 2014</t>
+  </si>
+  <si>
+    <t>Kansas 2014</t>
+  </si>
+  <si>
+    <t>Tennessee 2013</t>
+  </si>
+  <si>
+    <t>Washington 2013</t>
+  </si>
+  <si>
+    <t>Wisconsin 2012</t>
+  </si>
+  <si>
+    <t>Oregon 2012</t>
+  </si>
+  <si>
+    <t>Illinois 2011</t>
+  </si>
+  <si>
+    <t>Kansas 2011</t>
+  </si>
+  <si>
+    <t>Rochester 2010</t>
+  </si>
+  <si>
+    <t>Washington 2010</t>
+  </si>
+  <si>
+    <t>Wisconsin 2009</t>
+  </si>
+  <si>
+    <t>Oregon 2009</t>
+  </si>
+  <si>
+    <t>Tennessee 2008</t>
+  </si>
+  <si>
+    <t>Montreal 2008</t>
+  </si>
+  <si>
+    <t>overallRank</t>
+  </si>
+  <si>
+    <t>carNumber</t>
+  </si>
+  <si>
+    <t>universityName</t>
+  </si>
+  <si>
+    <t>Univ of Illinois - Urbana Champaign</t>
+  </si>
+  <si>
+    <t>teamName</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t>Offroad Illini</t>
+  </si>
+  <si>
+    <t>Off Road Illini</t>
+  </si>
+  <si>
+    <t>Off-road Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Road Illini </t>
+  </si>
+  <si>
+    <t>Offroad Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OffRoadIllini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Road Illini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Road Illini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offroad Illini </t>
+  </si>
+  <si>
+    <t>Off Road Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini 2</t>
+  </si>
+  <si>
+    <t>overallScore</t>
+  </si>
+  <si>
+    <t>overallDynamic</t>
+  </si>
+  <si>
+    <t>overallStatic</t>
+  </si>
+  <si>
+    <t>costScore</t>
+  </si>
+  <si>
+    <t>designScore</t>
+  </si>
+  <si>
+    <t>salesScore</t>
+  </si>
+  <si>
+    <t>techScore</t>
+  </si>
+  <si>
+    <t>accelScore</t>
+  </si>
+  <si>
+    <t>landManeuScore</t>
+  </si>
+  <si>
+    <t>rockCrawlScore</t>
+  </si>
+  <si>
+    <t>mudBogScore</t>
+  </si>
+  <si>
+    <t>hillClimbScore</t>
+  </si>
+  <si>
+    <t>sledPullScore</t>
+  </si>
+  <si>
+    <t>susTracScore</t>
+  </si>
+  <si>
+    <t>waterManeuScore</t>
+  </si>
+  <si>
+    <t>enduroScore</t>
+  </si>
+  <si>
+    <t>techPenalty</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>registered</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>techPassed</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>PassedTechOnTime</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
   <si>
     <t>compName</t>
@@ -1584,7 +1809,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1600,11 +1825,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1614,6 +1840,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1656,87 +1883,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>517</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>472</v>
+        <v>547</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>473</v>
+        <v>548</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>474</v>
+        <v>549</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>476</v>
+        <v>551</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>492</v>
+        <v>567</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>493</v>
+        <v>568</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>494</v>
+        <v>569</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>495</v>
+        <v>570</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>496</v>
+        <v>571</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>497</v>
+        <v>572</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>498</v>
+        <v>573</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>499</v>
+        <v>574</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>501</v>
+        <v>576</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>502</v>
+        <v>577</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>503</v>
+        <v>578</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>504</v>
+        <v>579</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>505</v>
+        <v>580</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>506</v>
+        <v>581</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>507</v>
+        <v>582</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>508</v>
+        <v>583</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>509</v>
+        <v>584</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>510</v>
+        <v>585</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>512</v>
+        <v>587</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>515</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>443</v>
+        <v>518</v>
       </c>
       <c r="B2" s="0">
         <v>29</v>
@@ -1745,10 +1972,10 @@
         <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>477</v>
+        <v>552</v>
       </c>
       <c r="F2" s="0">
         <v>624.89999999999998</v>
@@ -1805,18 +2032,18 @@
         <v>0</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>444</v>
+        <v>519</v>
       </c>
       <c r="B3" s="0">
         <v>36</v>
@@ -1825,10 +2052,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>477</v>
+        <v>552</v>
       </c>
       <c r="F3" s="0">
         <v>575.27999999999997</v>
@@ -1885,18 +2112,18 @@
         <v>0</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>445</v>
+        <v>520</v>
       </c>
       <c r="B4" s="0">
         <v>30</v>
@@ -1905,10 +2132,10 @@
         <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>477</v>
+        <v>552</v>
       </c>
       <c r="F4" s="0">
         <v>528.13999999999999</v>
@@ -1965,18 +2192,18 @@
         <v>0</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
       <c r="B5" s="0">
         <v>28</v>
@@ -1985,10 +2212,10 @@
         <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>477</v>
+        <v>552</v>
       </c>
       <c r="F5" s="0">
         <v>580.5</v>
@@ -2045,18 +2272,18 @@
         <v>0</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>447</v>
+        <v>522</v>
       </c>
       <c r="B6" s="0">
         <v>32</v>
@@ -2065,10 +2292,10 @@
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>477</v>
+        <v>552</v>
       </c>
       <c r="F6" s="0">
         <v>558.16999999999996</v>
@@ -2125,18 +2352,18 @@
         <v>0</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>448</v>
+        <v>523</v>
       </c>
       <c r="B7" s="0">
         <v>34</v>
@@ -2145,10 +2372,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>477</v>
+        <v>552</v>
       </c>
       <c r="F7" s="0">
         <v>504.32999999999998</v>
@@ -2205,18 +2432,18 @@
         <v>0</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>449</v>
+        <v>524</v>
       </c>
       <c r="B8" s="0">
         <v>58</v>
@@ -2225,10 +2452,10 @@
         <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>478</v>
+        <v>553</v>
       </c>
       <c r="F8" s="0">
         <v>418.02999999999997</v>
@@ -2285,18 +2512,18 @@
         <v>0</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="B9" s="0">
         <v>48</v>
@@ -2305,10 +2532,10 @@
         <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>478</v>
+        <v>553</v>
       </c>
       <c r="F9" s="0">
         <v>373.13999999999999</v>
@@ -2365,18 +2592,18 @@
         <v>0</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="B10" s="0">
         <v>56</v>
@@ -2385,10 +2612,10 @@
         <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>478</v>
+        <v>553</v>
       </c>
       <c r="F10" s="0">
         <v>343.38</v>
@@ -2445,18 +2672,18 @@
         <v>0</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>452</v>
+        <v>527</v>
       </c>
       <c r="B11" s="0">
         <v>70</v>
@@ -2465,10 +2692,10 @@
         <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>479</v>
+        <v>554</v>
       </c>
       <c r="F11" s="0">
         <v>376.86000000000001</v>
@@ -2525,18 +2752,18 @@
         <v>0</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>453</v>
+        <v>528</v>
       </c>
       <c r="B12" s="0">
         <v>74</v>
@@ -2545,10 +2772,10 @@
         <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>479</v>
+        <v>554</v>
       </c>
       <c r="F12" s="0">
         <v>225.12</v>
@@ -2605,18 +2832,18 @@
         <v>0</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>454</v>
+        <v>529</v>
       </c>
       <c r="B13" s="0">
         <v>65</v>
@@ -2625,10 +2852,10 @@
         <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>479</v>
+        <v>554</v>
       </c>
       <c r="F13" s="0">
         <v>370.51999999999998</v>
@@ -2685,18 +2912,18 @@
         <v>0</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>511</v>
+        <v>586</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>513</v>
+        <v>588</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>516</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>455</v>
+        <v>530</v>
       </c>
       <c r="B14" s="0">
         <v>54</v>
@@ -2705,10 +2932,10 @@
         <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="F14" s="0">
         <v>453.19</v>
@@ -2764,13 +2991,13 @@
       <c r="W14" s="0"/>
       <c r="X14" s="0"/>
       <c r="Y14" s="1" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="Z14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>456</v>
+        <v>531</v>
       </c>
       <c r="B15" s="0">
         <v>53</v>
@@ -2779,10 +3006,10 @@
         <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>481</v>
+        <v>556</v>
       </c>
       <c r="F15" s="0">
         <v>448.19</v>
@@ -2838,13 +3065,13 @@
       <c r="W15" s="0"/>
       <c r="X15" s="0"/>
       <c r="Y15" s="1" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="Z15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>457</v>
+        <v>532</v>
       </c>
       <c r="B16" s="0">
         <v>45</v>
@@ -2853,10 +3080,10 @@
         <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>481</v>
+        <v>556</v>
       </c>
       <c r="F16" s="0">
         <v>473.04000000000002</v>
@@ -2912,13 +3139,13 @@
       <c r="W16" s="0"/>
       <c r="X16" s="0"/>
       <c r="Y16" s="1" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="Z16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>458</v>
+        <v>533</v>
       </c>
       <c r="B17" s="0">
         <v>40</v>
@@ -2927,10 +3154,10 @@
         <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>482</v>
+        <v>557</v>
       </c>
       <c r="F17" s="0">
         <v>484.11000000000001</v>
@@ -2986,13 +3213,13 @@
       <c r="W17" s="0"/>
       <c r="X17" s="0"/>
       <c r="Y17" s="1" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="Z17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>459</v>
+        <v>534</v>
       </c>
       <c r="B18" s="0">
         <v>30</v>
@@ -3001,10 +3228,10 @@
         <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>482</v>
+        <v>557</v>
       </c>
       <c r="F18" s="0">
         <v>541.42999999999995</v>
@@ -3060,13 +3287,13 @@
       <c r="W18" s="0"/>
       <c r="X18" s="0"/>
       <c r="Y18" s="1" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="Z18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>460</v>
+        <v>535</v>
       </c>
       <c r="B19" s="0">
         <v>42</v>
@@ -3075,10 +3302,10 @@
         <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>483</v>
+        <v>558</v>
       </c>
       <c r="F19" s="0">
         <v>480.56999999999999</v>
@@ -3134,13 +3361,13 @@
       <c r="W19" s="0"/>
       <c r="X19" s="0"/>
       <c r="Y19" s="1" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="Z19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>461</v>
+        <v>536</v>
       </c>
       <c r="B20" s="0">
         <v>21</v>
@@ -3149,10 +3376,10 @@
         <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>484</v>
+        <v>559</v>
       </c>
       <c r="F20" s="0">
         <v>572.89999999999998</v>
@@ -3208,13 +3435,13 @@
       <c r="W20" s="0"/>
       <c r="X20" s="0"/>
       <c r="Y20" s="1" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="Z20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>462</v>
+        <v>537</v>
       </c>
       <c r="B21" s="0">
         <v>81</v>
@@ -3223,10 +3450,10 @@
         <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>485</v>
+        <v>560</v>
       </c>
       <c r="F21" s="0">
         <v>315.80000000000001</v>
@@ -3282,13 +3509,13 @@
       <c r="W21" s="0"/>
       <c r="X21" s="0"/>
       <c r="Y21" s="1" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="Z21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>463</v>
+        <v>538</v>
       </c>
       <c r="B22" s="0">
         <v>45</v>
@@ -3297,10 +3524,10 @@
         <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>486</v>
+        <v>561</v>
       </c>
       <c r="F22" s="0">
         <v>261.79000000000002</v>
@@ -3356,13 +3583,13 @@
       <c r="W22" s="0"/>
       <c r="X22" s="0"/>
       <c r="Y22" s="1" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="Z22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>464</v>
+        <v>539</v>
       </c>
       <c r="B23" s="0">
         <v>57</v>
@@ -3371,10 +3598,10 @@
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>486</v>
+        <v>561</v>
       </c>
       <c r="F23" s="0">
         <v>396.56999999999999</v>
@@ -3430,13 +3657,13 @@
       <c r="W23" s="0"/>
       <c r="X23" s="0"/>
       <c r="Y23" s="1" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="Z23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>465</v>
+        <v>540</v>
       </c>
       <c r="B24" s="0">
         <v>44</v>
@@ -3445,10 +3672,10 @@
         <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>486</v>
+        <v>561</v>
       </c>
       <c r="F24" s="0">
         <v>461.48000000000002</v>
@@ -3504,13 +3731,13 @@
       <c r="W24" s="0"/>
       <c r="X24" s="0"/>
       <c r="Y24" s="1" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="Z24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>466</v>
+        <v>541</v>
       </c>
       <c r="B25" s="0">
         <v>18</v>
@@ -3519,10 +3746,10 @@
         <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>487</v>
+        <v>562</v>
       </c>
       <c r="F25" s="0">
         <v>717.28999999999996</v>
@@ -3578,13 +3805,13 @@
       <c r="W25" s="0"/>
       <c r="X25" s="0"/>
       <c r="Y25" s="1" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="Z25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>467</v>
+        <v>542</v>
       </c>
       <c r="B26" s="0">
         <v>14</v>
@@ -3593,10 +3820,10 @@
         <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>488</v>
+        <v>563</v>
       </c>
       <c r="F26" s="0">
         <v>766.03999999999996</v>
@@ -3652,13 +3879,13 @@
       <c r="W26" s="0"/>
       <c r="X26" s="0"/>
       <c r="Y26" s="1" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="Z26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>468</v>
+        <v>543</v>
       </c>
       <c r="B27" s="0">
         <v>20</v>
@@ -3667,10 +3894,10 @@
         <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>489</v>
+        <v>564</v>
       </c>
       <c r="F27" s="0">
         <v>769.07000000000005</v>
@@ -3728,13 +3955,13 @@
       </c>
       <c r="X27" s="0"/>
       <c r="Y27" s="1" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="Z27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>469</v>
+        <v>544</v>
       </c>
       <c r="B28" s="0">
         <v>18</v>
@@ -3743,10 +3970,10 @@
         <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>489</v>
+        <v>564</v>
       </c>
       <c r="F28" s="0">
         <v>672.60000000000002</v>
@@ -3802,13 +4029,13 @@
       <c r="W28" s="0"/>
       <c r="X28" s="0"/>
       <c r="Y28" s="1" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="Z28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>470</v>
+        <v>545</v>
       </c>
       <c r="B29" s="0">
         <v>53</v>
@@ -3817,10 +4044,10 @@
         <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>490</v>
+        <v>565</v>
       </c>
       <c r="F29" s="0">
         <v>232.22999999999999</v>
@@ -3880,7 +4107,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>471</v>
+        <v>546</v>
       </c>
       <c r="B30" s="0">
         <v>63</v>
@@ -3889,10 +4116,10 @@
         <v>76</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>490</v>
+        <v>565</v>
       </c>
       <c r="F30" s="0">
         <v>440.13</v>
@@ -3940,7 +4167,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>471</v>
+        <v>546</v>
       </c>
       <c r="B31" s="0">
         <v>55</v>
@@ -3949,10 +4176,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>475</v>
+        <v>550</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>491</v>
+        <v>566</v>
       </c>
       <c r="F31" s="0">
         <v>473.77999999999997</v>

--- a/Output Tables/UIUCAllResults.xlsx
+++ b/Output Tables/UIUCAllResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="667">
   <si>
     <t>compName</t>
   </si>
@@ -214,6 +214,231 @@
   </si>
   <si>
     <t>PassedTechOnTime</t>
+  </si>
+  <si>
+    <t>compName</t>
+  </si>
+  <si>
+    <t>Rochester 2019</t>
+  </si>
+  <si>
+    <t>California 2019</t>
+  </si>
+  <si>
+    <t>Tennessee 2019</t>
+  </si>
+  <si>
+    <t>Oregon 2018</t>
+  </si>
+  <si>
+    <t>Kansas 2018</t>
+  </si>
+  <si>
+    <t>Maryland 2018</t>
+  </si>
+  <si>
+    <t>Illinois 2017</t>
+  </si>
+  <si>
+    <t>Kansas 2017</t>
+  </si>
+  <si>
+    <t>California 2017</t>
+  </si>
+  <si>
+    <t>Rochester 2016</t>
+  </si>
+  <si>
+    <t>Tennessee 2016</t>
+  </si>
+  <si>
+    <t>California 2016</t>
+  </si>
+  <si>
+    <t>Maryland 2015</t>
+  </si>
+  <si>
+    <t>Auburn 2015</t>
+  </si>
+  <si>
+    <t>Oregon 2015</t>
+  </si>
+  <si>
+    <t>Illinois 2014</t>
+  </si>
+  <si>
+    <t>Kansas 2014</t>
+  </si>
+  <si>
+    <t>Tennessee 2013</t>
+  </si>
+  <si>
+    <t>Washington 2013</t>
+  </si>
+  <si>
+    <t>Wisconsin 2012</t>
+  </si>
+  <si>
+    <t>Oregon 2012</t>
+  </si>
+  <si>
+    <t>Illinois 2011</t>
+  </si>
+  <si>
+    <t>Kansas 2011</t>
+  </si>
+  <si>
+    <t>Rochester 2010</t>
+  </si>
+  <si>
+    <t>Washington 2010</t>
+  </si>
+  <si>
+    <t>Wisconsin 2009</t>
+  </si>
+  <si>
+    <t>Oregon 2009</t>
+  </si>
+  <si>
+    <t>Tennessee 2008</t>
+  </si>
+  <si>
+    <t>Montreal 2008</t>
+  </si>
+  <si>
+    <t>overallRank</t>
+  </si>
+  <si>
+    <t>carNumber</t>
+  </si>
+  <si>
+    <t>universityName</t>
+  </si>
+  <si>
+    <t>Univ of Illinois - Urbana Champaign</t>
+  </si>
+  <si>
+    <t>teamName</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t>Offroad Illini</t>
+  </si>
+  <si>
+    <t>Off Road Illini</t>
+  </si>
+  <si>
+    <t>Off-road Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Road Illini </t>
+  </si>
+  <si>
+    <t>Offroad Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OffRoadIllini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Road Illini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Road Illini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offroad Illini </t>
+  </si>
+  <si>
+    <t>Off Road Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini 2</t>
+  </si>
+  <si>
+    <t>overallScore</t>
+  </si>
+  <si>
+    <t>overallDynamic</t>
+  </si>
+  <si>
+    <t>overallStatic</t>
+  </si>
+  <si>
+    <t>costScore</t>
+  </si>
+  <si>
+    <t>designScore</t>
+  </si>
+  <si>
+    <t>salesScore</t>
+  </si>
+  <si>
+    <t>techScore</t>
+  </si>
+  <si>
+    <t>accelScore</t>
+  </si>
+  <si>
+    <t>landManeuScore</t>
+  </si>
+  <si>
+    <t>rockCrawlScore</t>
+  </si>
+  <si>
+    <t>mudBogScore</t>
+  </si>
+  <si>
+    <t>hillClimbScore</t>
+  </si>
+  <si>
+    <t>sledPullScore</t>
+  </si>
+  <si>
+    <t>susTracScore</t>
+  </si>
+  <si>
+    <t>waterManeuScore</t>
+  </si>
+  <si>
+    <t>enduroScore</t>
+  </si>
+  <si>
+    <t>techPenalty</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>registered</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>techPassed</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>PassedTechOnTime</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
   <si>
     <t>compName</t>
@@ -1809,7 +2034,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1826,11 +2051,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1841,6 +2067,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1883,87 +2110,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>517</v>
+        <v>592</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>547</v>
+        <v>622</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>548</v>
+        <v>623</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>549</v>
+        <v>624</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>551</v>
+        <v>626</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>567</v>
+        <v>642</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>568</v>
+        <v>643</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>569</v>
+        <v>644</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>570</v>
+        <v>645</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>571</v>
+        <v>646</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>572</v>
+        <v>647</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>573</v>
+        <v>648</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>574</v>
+        <v>649</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>576</v>
+        <v>651</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>577</v>
+        <v>652</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>578</v>
+        <v>653</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>579</v>
+        <v>654</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>580</v>
+        <v>655</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>581</v>
+        <v>656</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>582</v>
+        <v>657</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>583</v>
+        <v>658</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>584</v>
+        <v>659</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>587</v>
+        <v>662</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>590</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>518</v>
+        <v>593</v>
       </c>
       <c r="B2" s="0">
         <v>29</v>
@@ -1972,10 +2199,10 @@
         <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>552</v>
+        <v>627</v>
       </c>
       <c r="F2" s="0">
         <v>624.89999999999998</v>
@@ -2032,18 +2259,18 @@
         <v>0</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>519</v>
+        <v>594</v>
       </c>
       <c r="B3" s="0">
         <v>36</v>
@@ -2052,10 +2279,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>552</v>
+        <v>627</v>
       </c>
       <c r="F3" s="0">
         <v>575.27999999999997</v>
@@ -2112,18 +2339,18 @@
         <v>0</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>520</v>
+        <v>595</v>
       </c>
       <c r="B4" s="0">
         <v>30</v>
@@ -2132,10 +2359,10 @@
         <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>552</v>
+        <v>627</v>
       </c>
       <c r="F4" s="0">
         <v>528.13999999999999</v>
@@ -2192,18 +2419,18 @@
         <v>0</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>521</v>
+        <v>596</v>
       </c>
       <c r="B5" s="0">
         <v>28</v>
@@ -2212,10 +2439,10 @@
         <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>552</v>
+        <v>627</v>
       </c>
       <c r="F5" s="0">
         <v>580.5</v>
@@ -2272,18 +2499,18 @@
         <v>0</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>522</v>
+        <v>597</v>
       </c>
       <c r="B6" s="0">
         <v>32</v>
@@ -2292,10 +2519,10 @@
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>552</v>
+        <v>627</v>
       </c>
       <c r="F6" s="0">
         <v>558.16999999999996</v>
@@ -2352,18 +2579,18 @@
         <v>0</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>523</v>
+        <v>598</v>
       </c>
       <c r="B7" s="0">
         <v>34</v>
@@ -2372,10 +2599,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>552</v>
+        <v>627</v>
       </c>
       <c r="F7" s="0">
         <v>504.32999999999998</v>
@@ -2432,18 +2659,18 @@
         <v>0</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>524</v>
+        <v>599</v>
       </c>
       <c r="B8" s="0">
         <v>58</v>
@@ -2452,10 +2679,10 @@
         <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>553</v>
+        <v>628</v>
       </c>
       <c r="F8" s="0">
         <v>418.02999999999997</v>
@@ -2512,18 +2739,18 @@
         <v>0</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>525</v>
+        <v>600</v>
       </c>
       <c r="B9" s="0">
         <v>48</v>
@@ -2532,10 +2759,10 @@
         <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>553</v>
+        <v>628</v>
       </c>
       <c r="F9" s="0">
         <v>373.13999999999999</v>
@@ -2592,18 +2819,18 @@
         <v>0</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>526</v>
+        <v>601</v>
       </c>
       <c r="B10" s="0">
         <v>56</v>
@@ -2612,10 +2839,10 @@
         <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>553</v>
+        <v>628</v>
       </c>
       <c r="F10" s="0">
         <v>343.38</v>
@@ -2672,18 +2899,18 @@
         <v>0</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>527</v>
+        <v>602</v>
       </c>
       <c r="B11" s="0">
         <v>70</v>
@@ -2692,10 +2919,10 @@
         <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>554</v>
+        <v>629</v>
       </c>
       <c r="F11" s="0">
         <v>376.86000000000001</v>
@@ -2752,18 +2979,18 @@
         <v>0</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>528</v>
+        <v>603</v>
       </c>
       <c r="B12" s="0">
         <v>74</v>
@@ -2772,10 +2999,10 @@
         <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>554</v>
+        <v>629</v>
       </c>
       <c r="F12" s="0">
         <v>225.12</v>
@@ -2832,18 +3059,18 @@
         <v>0</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>529</v>
+        <v>604</v>
       </c>
       <c r="B13" s="0">
         <v>65</v>
@@ -2852,10 +3079,10 @@
         <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>554</v>
+        <v>629</v>
       </c>
       <c r="F13" s="0">
         <v>370.51999999999998</v>
@@ -2912,18 +3139,18 @@
         <v>0</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>586</v>
+        <v>661</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>588</v>
+        <v>663</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>591</v>
+        <v>666</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>530</v>
+        <v>605</v>
       </c>
       <c r="B14" s="0">
         <v>54</v>
@@ -2932,10 +3159,10 @@
         <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>555</v>
+        <v>630</v>
       </c>
       <c r="F14" s="0">
         <v>453.19</v>
@@ -2991,13 +3218,13 @@
       <c r="W14" s="0"/>
       <c r="X14" s="0"/>
       <c r="Y14" s="1" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="Z14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>531</v>
+        <v>606</v>
       </c>
       <c r="B15" s="0">
         <v>53</v>
@@ -3006,10 +3233,10 @@
         <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>556</v>
+        <v>631</v>
       </c>
       <c r="F15" s="0">
         <v>448.19</v>
@@ -3065,13 +3292,13 @@
       <c r="W15" s="0"/>
       <c r="X15" s="0"/>
       <c r="Y15" s="1" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="Z15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>532</v>
+        <v>607</v>
       </c>
       <c r="B16" s="0">
         <v>45</v>
@@ -3080,10 +3307,10 @@
         <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>556</v>
+        <v>631</v>
       </c>
       <c r="F16" s="0">
         <v>473.04000000000002</v>
@@ -3139,13 +3366,13 @@
       <c r="W16" s="0"/>
       <c r="X16" s="0"/>
       <c r="Y16" s="1" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="Z16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>533</v>
+        <v>608</v>
       </c>
       <c r="B17" s="0">
         <v>40</v>
@@ -3154,10 +3381,10 @@
         <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>557</v>
+        <v>632</v>
       </c>
       <c r="F17" s="0">
         <v>484.11000000000001</v>
@@ -3213,13 +3440,13 @@
       <c r="W17" s="0"/>
       <c r="X17" s="0"/>
       <c r="Y17" s="1" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="Z17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>534</v>
+        <v>609</v>
       </c>
       <c r="B18" s="0">
         <v>30</v>
@@ -3228,10 +3455,10 @@
         <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>557</v>
+        <v>632</v>
       </c>
       <c r="F18" s="0">
         <v>541.42999999999995</v>
@@ -3287,13 +3514,13 @@
       <c r="W18" s="0"/>
       <c r="X18" s="0"/>
       <c r="Y18" s="1" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="Z18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>535</v>
+        <v>610</v>
       </c>
       <c r="B19" s="0">
         <v>42</v>
@@ -3302,10 +3529,10 @@
         <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>558</v>
+        <v>633</v>
       </c>
       <c r="F19" s="0">
         <v>480.56999999999999</v>
@@ -3361,13 +3588,13 @@
       <c r="W19" s="0"/>
       <c r="X19" s="0"/>
       <c r="Y19" s="1" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="Z19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>536</v>
+        <v>611</v>
       </c>
       <c r="B20" s="0">
         <v>21</v>
@@ -3376,10 +3603,10 @@
         <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>559</v>
+        <v>634</v>
       </c>
       <c r="F20" s="0">
         <v>572.89999999999998</v>
@@ -3435,13 +3662,13 @@
       <c r="W20" s="0"/>
       <c r="X20" s="0"/>
       <c r="Y20" s="1" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="Z20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>537</v>
+        <v>612</v>
       </c>
       <c r="B21" s="0">
         <v>81</v>
@@ -3450,10 +3677,10 @@
         <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>560</v>
+        <v>635</v>
       </c>
       <c r="F21" s="0">
         <v>315.80000000000001</v>
@@ -3509,13 +3736,13 @@
       <c r="W21" s="0"/>
       <c r="X21" s="0"/>
       <c r="Y21" s="1" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="Z21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>538</v>
+        <v>613</v>
       </c>
       <c r="B22" s="0">
         <v>45</v>
@@ -3524,10 +3751,10 @@
         <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>561</v>
+        <v>636</v>
       </c>
       <c r="F22" s="0">
         <v>261.79000000000002</v>
@@ -3583,13 +3810,13 @@
       <c r="W22" s="0"/>
       <c r="X22" s="0"/>
       <c r="Y22" s="1" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="Z22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>539</v>
+        <v>614</v>
       </c>
       <c r="B23" s="0">
         <v>57</v>
@@ -3598,10 +3825,10 @@
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>561</v>
+        <v>636</v>
       </c>
       <c r="F23" s="0">
         <v>396.56999999999999</v>
@@ -3657,13 +3884,13 @@
       <c r="W23" s="0"/>
       <c r="X23" s="0"/>
       <c r="Y23" s="1" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="Z23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>540</v>
+        <v>615</v>
       </c>
       <c r="B24" s="0">
         <v>44</v>
@@ -3672,10 +3899,10 @@
         <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>561</v>
+        <v>636</v>
       </c>
       <c r="F24" s="0">
         <v>461.48000000000002</v>
@@ -3731,13 +3958,13 @@
       <c r="W24" s="0"/>
       <c r="X24" s="0"/>
       <c r="Y24" s="1" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="Z24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>541</v>
+        <v>616</v>
       </c>
       <c r="B25" s="0">
         <v>18</v>
@@ -3746,10 +3973,10 @@
         <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>562</v>
+        <v>637</v>
       </c>
       <c r="F25" s="0">
         <v>717.28999999999996</v>
@@ -3805,13 +4032,13 @@
       <c r="W25" s="0"/>
       <c r="X25" s="0"/>
       <c r="Y25" s="1" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="Z25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>542</v>
+        <v>617</v>
       </c>
       <c r="B26" s="0">
         <v>14</v>
@@ -3820,10 +4047,10 @@
         <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>563</v>
+        <v>638</v>
       </c>
       <c r="F26" s="0">
         <v>766.03999999999996</v>
@@ -3879,13 +4106,13 @@
       <c r="W26" s="0"/>
       <c r="X26" s="0"/>
       <c r="Y26" s="1" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="Z26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>543</v>
+        <v>618</v>
       </c>
       <c r="B27" s="0">
         <v>20</v>
@@ -3894,10 +4121,10 @@
         <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>564</v>
+        <v>639</v>
       </c>
       <c r="F27" s="0">
         <v>769.07000000000005</v>
@@ -3955,13 +4182,13 @@
       </c>
       <c r="X27" s="0"/>
       <c r="Y27" s="1" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="Z27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>544</v>
+        <v>619</v>
       </c>
       <c r="B28" s="0">
         <v>18</v>
@@ -3970,10 +4197,10 @@
         <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>564</v>
+        <v>639</v>
       </c>
       <c r="F28" s="0">
         <v>672.60000000000002</v>
@@ -4029,13 +4256,13 @@
       <c r="W28" s="0"/>
       <c r="X28" s="0"/>
       <c r="Y28" s="1" t="s">
-        <v>589</v>
+        <v>664</v>
       </c>
       <c r="Z28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>545</v>
+        <v>620</v>
       </c>
       <c r="B29" s="0">
         <v>53</v>
@@ -4044,10 +4271,10 @@
         <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>565</v>
+        <v>640</v>
       </c>
       <c r="F29" s="0">
         <v>232.22999999999999</v>
@@ -4107,7 +4334,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>546</v>
+        <v>621</v>
       </c>
       <c r="B30" s="0">
         <v>63</v>
@@ -4116,10 +4343,10 @@
         <v>76</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>565</v>
+        <v>640</v>
       </c>
       <c r="F30" s="0">
         <v>440.13</v>
@@ -4167,7 +4394,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>546</v>
+        <v>621</v>
       </c>
       <c r="B31" s="0">
         <v>55</v>
@@ -4176,10 +4403,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>550</v>
+        <v>625</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>566</v>
+        <v>641</v>
       </c>
       <c r="F31" s="0">
         <v>473.77999999999997</v>

--- a/Output Tables/UIUCAllResults.xlsx
+++ b/Output Tables/UIUCAllResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="742">
   <si>
     <t>compName</t>
   </si>
@@ -214,6 +214,231 @@
   </si>
   <si>
     <t>PassedTechOnTime</t>
+  </si>
+  <si>
+    <t>compName</t>
+  </si>
+  <si>
+    <t>Rochester 2019</t>
+  </si>
+  <si>
+    <t>California 2019</t>
+  </si>
+  <si>
+    <t>Tennessee 2019</t>
+  </si>
+  <si>
+    <t>Oregon 2018</t>
+  </si>
+  <si>
+    <t>Kansas 2018</t>
+  </si>
+  <si>
+    <t>Maryland 2018</t>
+  </si>
+  <si>
+    <t>Illinois 2017</t>
+  </si>
+  <si>
+    <t>Kansas 2017</t>
+  </si>
+  <si>
+    <t>California 2017</t>
+  </si>
+  <si>
+    <t>Rochester 2016</t>
+  </si>
+  <si>
+    <t>Tennessee 2016</t>
+  </si>
+  <si>
+    <t>California 2016</t>
+  </si>
+  <si>
+    <t>Maryland 2015</t>
+  </si>
+  <si>
+    <t>Auburn 2015</t>
+  </si>
+  <si>
+    <t>Oregon 2015</t>
+  </si>
+  <si>
+    <t>Illinois 2014</t>
+  </si>
+  <si>
+    <t>Kansas 2014</t>
+  </si>
+  <si>
+    <t>Tennessee 2013</t>
+  </si>
+  <si>
+    <t>Washington 2013</t>
+  </si>
+  <si>
+    <t>Wisconsin 2012</t>
+  </si>
+  <si>
+    <t>Oregon 2012</t>
+  </si>
+  <si>
+    <t>Illinois 2011</t>
+  </si>
+  <si>
+    <t>Kansas 2011</t>
+  </si>
+  <si>
+    <t>Rochester 2010</t>
+  </si>
+  <si>
+    <t>Washington 2010</t>
+  </si>
+  <si>
+    <t>Wisconsin 2009</t>
+  </si>
+  <si>
+    <t>Oregon 2009</t>
+  </si>
+  <si>
+    <t>Tennessee 2008</t>
+  </si>
+  <si>
+    <t>Montreal 2008</t>
+  </si>
+  <si>
+    <t>overallRank</t>
+  </si>
+  <si>
+    <t>carNumber</t>
+  </si>
+  <si>
+    <t>universityName</t>
+  </si>
+  <si>
+    <t>Univ of Illinois - Urbana Champaign</t>
+  </si>
+  <si>
+    <t>teamName</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t>Offroad Illini</t>
+  </si>
+  <si>
+    <t>Off Road Illini</t>
+  </si>
+  <si>
+    <t>Off-road Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Road Illini </t>
+  </si>
+  <si>
+    <t>Offroad Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OffRoadIllini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off-Road Illini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Off Road Illini </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offroad Illini </t>
+  </si>
+  <si>
+    <t>Off Road Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini</t>
+  </si>
+  <si>
+    <t>Off-Road Illini 2</t>
+  </si>
+  <si>
+    <t>overallScore</t>
+  </si>
+  <si>
+    <t>overallDynamic</t>
+  </si>
+  <si>
+    <t>overallStatic</t>
+  </si>
+  <si>
+    <t>costScore</t>
+  </si>
+  <si>
+    <t>designScore</t>
+  </si>
+  <si>
+    <t>salesScore</t>
+  </si>
+  <si>
+    <t>techScore</t>
+  </si>
+  <si>
+    <t>accelScore</t>
+  </si>
+  <si>
+    <t>landManeuScore</t>
+  </si>
+  <si>
+    <t>rockCrawlScore</t>
+  </si>
+  <si>
+    <t>mudBogScore</t>
+  </si>
+  <si>
+    <t>hillClimbScore</t>
+  </si>
+  <si>
+    <t>sledPullScore</t>
+  </si>
+  <si>
+    <t>susTracScore</t>
+  </si>
+  <si>
+    <t>waterManeuScore</t>
+  </si>
+  <si>
+    <t>enduroScore</t>
+  </si>
+  <si>
+    <t>techPenalty</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>registered</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>techPassed</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>PassedTechOnTime</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
   <si>
     <t>compName</t>
@@ -2034,7 +2259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -2052,11 +2277,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -2068,6 +2294,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2110,87 +2337,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>592</v>
+        <v>667</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>622</v>
+        <v>697</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>623</v>
+        <v>698</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>626</v>
+        <v>701</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>642</v>
+        <v>717</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>643</v>
+        <v>718</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>645</v>
+        <v>720</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>646</v>
+        <v>721</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>647</v>
+        <v>722</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>648</v>
+        <v>723</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>649</v>
+        <v>724</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>651</v>
+        <v>726</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>652</v>
+        <v>727</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>653</v>
+        <v>728</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>654</v>
+        <v>729</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>655</v>
+        <v>730</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>656</v>
+        <v>731</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>657</v>
+        <v>732</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>658</v>
+        <v>733</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>659</v>
+        <v>734</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>660</v>
+        <v>735</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>662</v>
+        <v>737</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>665</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>593</v>
+        <v>668</v>
       </c>
       <c r="B2" s="0">
         <v>29</v>
@@ -2199,10 +2426,10 @@
         <v>82</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>627</v>
+        <v>702</v>
       </c>
       <c r="F2" s="0">
         <v>624.89999999999998</v>
@@ -2259,18 +2486,18 @@
         <v>0</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>594</v>
+        <v>669</v>
       </c>
       <c r="B3" s="0">
         <v>36</v>
@@ -2279,10 +2506,10 @@
         <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>627</v>
+        <v>702</v>
       </c>
       <c r="F3" s="0">
         <v>575.27999999999997</v>
@@ -2339,18 +2566,18 @@
         <v>0</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>595</v>
+        <v>670</v>
       </c>
       <c r="B4" s="0">
         <v>30</v>
@@ -2359,10 +2586,10 @@
         <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>627</v>
+        <v>702</v>
       </c>
       <c r="F4" s="0">
         <v>528.13999999999999</v>
@@ -2419,18 +2646,18 @@
         <v>0</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>596</v>
+        <v>671</v>
       </c>
       <c r="B5" s="0">
         <v>28</v>
@@ -2439,10 +2666,10 @@
         <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>627</v>
+        <v>702</v>
       </c>
       <c r="F5" s="0">
         <v>580.5</v>
@@ -2499,18 +2726,18 @@
         <v>0</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>597</v>
+        <v>672</v>
       </c>
       <c r="B6" s="0">
         <v>32</v>
@@ -2519,10 +2746,10 @@
         <v>50</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>627</v>
+        <v>702</v>
       </c>
       <c r="F6" s="0">
         <v>558.16999999999996</v>
@@ -2579,18 +2806,18 @@
         <v>0</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>598</v>
+        <v>673</v>
       </c>
       <c r="B7" s="0">
         <v>34</v>
@@ -2599,10 +2826,10 @@
         <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>627</v>
+        <v>702</v>
       </c>
       <c r="F7" s="0">
         <v>504.32999999999998</v>
@@ -2659,18 +2886,18 @@
         <v>0</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>599</v>
+        <v>674</v>
       </c>
       <c r="B8" s="0">
         <v>58</v>
@@ -2679,10 +2906,10 @@
         <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>628</v>
+        <v>703</v>
       </c>
       <c r="F8" s="0">
         <v>418.02999999999997</v>
@@ -2739,18 +2966,18 @@
         <v>0</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="B9" s="0">
         <v>48</v>
@@ -2759,10 +2986,10 @@
         <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>628</v>
+        <v>703</v>
       </c>
       <c r="F9" s="0">
         <v>373.13999999999999</v>
@@ -2819,18 +3046,18 @@
         <v>0</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>601</v>
+        <v>676</v>
       </c>
       <c r="B10" s="0">
         <v>56</v>
@@ -2839,10 +3066,10 @@
         <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>628</v>
+        <v>703</v>
       </c>
       <c r="F10" s="0">
         <v>343.38</v>
@@ -2899,18 +3126,18 @@
         <v>0</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>602</v>
+        <v>677</v>
       </c>
       <c r="B11" s="0">
         <v>70</v>
@@ -2919,10 +3146,10 @@
         <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
       <c r="F11" s="0">
         <v>376.86000000000001</v>
@@ -2979,18 +3206,18 @@
         <v>0</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>603</v>
+        <v>678</v>
       </c>
       <c r="B12" s="0">
         <v>74</v>
@@ -2999,10 +3226,10 @@
         <v>48</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
       <c r="F12" s="0">
         <v>225.12</v>
@@ -3059,18 +3286,18 @@
         <v>0</v>
       </c>
       <c r="X12" s="1" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
       <c r="B13" s="0">
         <v>65</v>
@@ -3079,10 +3306,10 @@
         <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
       <c r="F13" s="0">
         <v>370.51999999999998</v>
@@ -3139,18 +3366,18 @@
         <v>0</v>
       </c>
       <c r="X13" s="1" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>666</v>
+        <v>741</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>605</v>
+        <v>680</v>
       </c>
       <c r="B14" s="0">
         <v>54</v>
@@ -3159,10 +3386,10 @@
         <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
       <c r="F14" s="0">
         <v>453.19</v>
@@ -3218,13 +3445,13 @@
       <c r="W14" s="0"/>
       <c r="X14" s="0"/>
       <c r="Y14" s="1" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="Z14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>606</v>
+        <v>681</v>
       </c>
       <c r="B15" s="0">
         <v>53</v>
@@ -3233,10 +3460,10 @@
         <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="F15" s="0">
         <v>448.19</v>
@@ -3292,13 +3519,13 @@
       <c r="W15" s="0"/>
       <c r="X15" s="0"/>
       <c r="Y15" s="1" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="Z15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>607</v>
+        <v>682</v>
       </c>
       <c r="B16" s="0">
         <v>45</v>
@@ -3307,10 +3534,10 @@
         <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="F16" s="0">
         <v>473.04000000000002</v>
@@ -3366,13 +3593,13 @@
       <c r="W16" s="0"/>
       <c r="X16" s="0"/>
       <c r="Y16" s="1" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="Z16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>608</v>
+        <v>683</v>
       </c>
       <c r="B17" s="0">
         <v>40</v>
@@ -3381,10 +3608,10 @@
         <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>632</v>
+        <v>707</v>
       </c>
       <c r="F17" s="0">
         <v>484.11000000000001</v>
@@ -3440,13 +3667,13 @@
       <c r="W17" s="0"/>
       <c r="X17" s="0"/>
       <c r="Y17" s="1" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="Z17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>609</v>
+        <v>684</v>
       </c>
       <c r="B18" s="0">
         <v>30</v>
@@ -3455,10 +3682,10 @@
         <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>632</v>
+        <v>707</v>
       </c>
       <c r="F18" s="0">
         <v>541.42999999999995</v>
@@ -3514,13 +3741,13 @@
       <c r="W18" s="0"/>
       <c r="X18" s="0"/>
       <c r="Y18" s="1" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="Z18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>610</v>
+        <v>685</v>
       </c>
       <c r="B19" s="0">
         <v>42</v>
@@ -3529,10 +3756,10 @@
         <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>633</v>
+        <v>708</v>
       </c>
       <c r="F19" s="0">
         <v>480.56999999999999</v>
@@ -3588,13 +3815,13 @@
       <c r="W19" s="0"/>
       <c r="X19" s="0"/>
       <c r="Y19" s="1" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="Z19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>611</v>
+        <v>686</v>
       </c>
       <c r="B20" s="0">
         <v>21</v>
@@ -3603,10 +3830,10 @@
         <v>43</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>634</v>
+        <v>709</v>
       </c>
       <c r="F20" s="0">
         <v>572.89999999999998</v>
@@ -3662,13 +3889,13 @@
       <c r="W20" s="0"/>
       <c r="X20" s="0"/>
       <c r="Y20" s="1" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="Z20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>612</v>
+        <v>687</v>
       </c>
       <c r="B21" s="0">
         <v>81</v>
@@ -3677,10 +3904,10 @@
         <v>85</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="F21" s="0">
         <v>315.80000000000001</v>
@@ -3736,13 +3963,13 @@
       <c r="W21" s="0"/>
       <c r="X21" s="0"/>
       <c r="Y21" s="1" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="Z21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>613</v>
+        <v>688</v>
       </c>
       <c r="B22" s="0">
         <v>45</v>
@@ -3751,10 +3978,10 @@
         <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="F22" s="0">
         <v>261.79000000000002</v>
@@ -3810,13 +4037,13 @@
       <c r="W22" s="0"/>
       <c r="X22" s="0"/>
       <c r="Y22" s="1" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="Z22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>614</v>
+        <v>689</v>
       </c>
       <c r="B23" s="0">
         <v>57</v>
@@ -3825,10 +4052,10 @@
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="F23" s="0">
         <v>396.56999999999999</v>
@@ -3884,13 +4111,13 @@
       <c r="W23" s="0"/>
       <c r="X23" s="0"/>
       <c r="Y23" s="1" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="Z23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="B24" s="0">
         <v>44</v>
@@ -3899,10 +4126,10 @@
         <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="F24" s="0">
         <v>461.48000000000002</v>
@@ -3958,13 +4185,13 @@
       <c r="W24" s="0"/>
       <c r="X24" s="0"/>
       <c r="Y24" s="1" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="Z24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>616</v>
+        <v>691</v>
       </c>
       <c r="B25" s="0">
         <v>18</v>
@@ -3973,10 +4200,10 @@
         <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>637</v>
+        <v>712</v>
       </c>
       <c r="F25" s="0">
         <v>717.28999999999996</v>
@@ -4032,13 +4259,13 @@
       <c r="W25" s="0"/>
       <c r="X25" s="0"/>
       <c r="Y25" s="1" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="Z25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>617</v>
+        <v>692</v>
       </c>
       <c r="B26" s="0">
         <v>14</v>
@@ -4047,10 +4274,10 @@
         <v>40</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>638</v>
+        <v>713</v>
       </c>
       <c r="F26" s="0">
         <v>766.03999999999996</v>
@@ -4106,13 +4333,13 @@
       <c r="W26" s="0"/>
       <c r="X26" s="0"/>
       <c r="Y26" s="1" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="Z26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="B27" s="0">
         <v>20</v>
@@ -4121,10 +4348,10 @@
         <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>639</v>
+        <v>714</v>
       </c>
       <c r="F27" s="0">
         <v>769.07000000000005</v>
@@ -4182,13 +4409,13 @@
       </c>
       <c r="X27" s="0"/>
       <c r="Y27" s="1" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="Z27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
       <c r="B28" s="0">
         <v>18</v>
@@ -4197,10 +4424,10 @@
         <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>639</v>
+        <v>714</v>
       </c>
       <c r="F28" s="0">
         <v>672.60000000000002</v>
@@ -4256,13 +4483,13 @@
       <c r="W28" s="0"/>
       <c r="X28" s="0"/>
       <c r="Y28" s="1" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="Z28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="B29" s="0">
         <v>53</v>
@@ -4271,10 +4498,10 @@
         <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>640</v>
+        <v>715</v>
       </c>
       <c r="F29" s="0">
         <v>232.22999999999999</v>
@@ -4334,7 +4561,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="B30" s="0">
         <v>63</v>
@@ -4343,10 +4570,10 @@
         <v>76</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>640</v>
+        <v>715</v>
       </c>
       <c r="F30" s="0">
         <v>440.13</v>
@@ -4394,7 +4621,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="B31" s="0">
         <v>55</v>
@@ -4403,10 +4630,10 @@
         <v>77</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>641</v>
+        <v>716</v>
       </c>
       <c r="F31" s="0">
         <v>473.77999999999997</v>

--- a/Output Tables/UIUCAllResults.xlsx
+++ b/Output Tables/UIUCAllResults.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="592">
   <si>
     <t>compName</t>
   </si>
@@ -1809,7 +1809,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1826,11 +1826,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1841,6 +1843,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1853,2389 +1857,2327 @@
   <dimension ref="A1:Z31"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="true"/>
-    <col min="2" max="2" width="11.5703125" customWidth="true"/>
-    <col min="3" max="3" width="11" customWidth="true"/>
-    <col min="4" max="4" width="32" customWidth="true"/>
-    <col min="5" max="5" width="14" customWidth="true"/>
-    <col min="6" max="6" width="12.140625" customWidth="true"/>
-    <col min="7" max="7" width="14.85546875" customWidth="true"/>
-    <col min="8" max="8" width="12.140625" customWidth="true"/>
-    <col min="9" max="9" width="9.5703125" customWidth="true"/>
-    <col min="10" max="10" width="11.85546875" customWidth="true"/>
-    <col min="11" max="11" width="10.42578125" customWidth="true"/>
-    <col min="12" max="12" width="9.85546875" customWidth="true"/>
-    <col min="13" max="13" width="10.42578125" customWidth="true"/>
-    <col min="14" max="14" width="16" customWidth="true"/>
-    <col min="15" max="15" width="14.7109375" customWidth="true"/>
-    <col min="16" max="16" width="13.28515625" customWidth="true"/>
-    <col min="17" max="17" width="14" customWidth="true"/>
-    <col min="18" max="18" width="13.140625" customWidth="true"/>
-    <col min="19" max="19" width="12.42578125" customWidth="true"/>
-    <col min="20" max="20" width="17.28515625" customWidth="true"/>
-    <col min="21" max="21" width="12.42578125" customWidth="true"/>
-    <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="7.85546875" customWidth="true"/>
-    <col min="24" max="24" width="10.28515625" customWidth="true"/>
-    <col min="25" max="25" width="11.140625" customWidth="true"/>
-    <col min="26" max="26" width="18.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.109375" customWidth="true"/>
+    <col min="2" max="2" width="10.5546875" customWidth="true"/>
+    <col min="3" max="3" width="10.109375" customWidth="true"/>
+    <col min="4" max="4" width="29.5546875" customWidth="true"/>
+    <col min="5" max="5" width="12.77734375" customWidth="true"/>
+    <col min="6" max="6" width="11.109375" customWidth="true"/>
+    <col min="7" max="7" width="13.5546875" customWidth="true"/>
+    <col min="8" max="8" width="11.109375" customWidth="true"/>
+    <col min="9" max="9" width="9" customWidth="true"/>
+    <col min="10" max="10" width="10.6640625" customWidth="true"/>
+    <col min="11" max="11" width="9.5546875" customWidth="true"/>
+    <col min="12" max="12" width="9.109375" customWidth="true"/>
+    <col min="13" max="13" width="9.77734375" customWidth="true"/>
+    <col min="14" max="14" width="14.6640625" customWidth="true"/>
+    <col min="15" max="15" width="13.77734375" customWidth="true"/>
+    <col min="16" max="16" width="12.21875" customWidth="true"/>
+    <col min="17" max="17" width="12.44140625" customWidth="true"/>
+    <col min="18" max="18" width="11.6640625" customWidth="true"/>
+    <col min="19" max="19" width="11.6640625" customWidth="true"/>
+    <col min="20" max="20" width="16" customWidth="true"/>
+    <col min="21" max="21" width="11.33203125" customWidth="true"/>
+    <col min="22" max="22" width="10.5546875" customWidth="true"/>
+    <col min="23" max="23" width="7" customWidth="true"/>
+    <col min="24" max="24" width="9.109375" customWidth="true"/>
+    <col min="25" max="25" width="10.109375" customWidth="true"/>
+    <col min="26" max="26" width="16.77734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="10" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>29</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>82</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F2" s="0">
+      <c r="E2" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="F2">
         <v>624.89999999999998</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>175.63999999999999</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>206.12</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>53.119999999999997</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2">
         <v>110</v>
       </c>
-      <c r="K2" s="0">
+      <c r="K2">
         <v>43</v>
       </c>
-      <c r="L2" s="0">
-        <v>0</v>
-      </c>
-      <c r="M2" s="0">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>53.619999999999997</v>
       </c>
-      <c r="N2" s="0">
+      <c r="N2">
         <v>67.430000000000007</v>
       </c>
-      <c r="O2" s="0">
-        <v>0</v>
-      </c>
-      <c r="P2" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="0">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>8.8100000000000005</v>
       </c>
-      <c r="R2" s="0">
-        <v>0</v>
-      </c>
-      <c r="S2" s="0">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>45.789999999999999</v>
       </c>
-      <c r="T2" s="0">
-        <v>0</v>
-      </c>
-      <c r="U2" s="0">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>243.13999999999999</v>
       </c>
-      <c r="V2" s="0">
-        <v>0</v>
-      </c>
-      <c r="W2" s="0">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z2" s="10" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>36</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3">
         <v>33</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F3" s="0">
+      <c r="E3" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="F3">
         <v>575.27999999999997</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>190.13</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>195.68000000000001</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>58.68</v>
       </c>
-      <c r="J3" s="0">
+      <c r="J3">
         <v>100</v>
       </c>
-      <c r="K3" s="0">
+      <c r="K3">
         <v>37</v>
       </c>
-      <c r="L3" s="0">
-        <v>0</v>
-      </c>
-      <c r="M3" s="0">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>49.229999999999997</v>
       </c>
-      <c r="N3" s="0">
+      <c r="N3">
         <v>69.310000000000002</v>
       </c>
-      <c r="O3" s="0">
-        <v>0</v>
-      </c>
-      <c r="P3" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="0">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>32.75</v>
       </c>
-      <c r="R3" s="0">
-        <v>0</v>
-      </c>
-      <c r="S3" s="0">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>38.840000000000003</v>
       </c>
-      <c r="T3" s="0">
-        <v>0</v>
-      </c>
-      <c r="U3" s="0">
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>189.47</v>
       </c>
-      <c r="V3" s="0">
-        <v>0</v>
-      </c>
-      <c r="W3" s="0">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z3" s="1" t="s">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z3" s="10" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>30</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4">
         <v>109</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F4" s="0">
+      <c r="E4" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="F4">
         <v>528.13999999999999</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>136.27000000000001</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>178.53999999999999</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>60.539999999999999</v>
       </c>
-      <c r="J4" s="0">
+      <c r="J4">
         <v>90</v>
       </c>
-      <c r="K4" s="0">
+      <c r="K4">
         <v>28</v>
       </c>
-      <c r="L4" s="0">
-        <v>0</v>
-      </c>
-      <c r="M4" s="0">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>51.020000000000003</v>
       </c>
-      <c r="N4" s="0">
+      <c r="N4">
         <v>70.689999999999998</v>
       </c>
-      <c r="O4" s="0">
-        <v>0</v>
-      </c>
-      <c r="P4" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="0">
-        <v>0</v>
-      </c>
-      <c r="R4" s="0">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>7.5499999999999998</v>
       </c>
-      <c r="S4" s="0">
+      <c r="S4">
         <v>7</v>
       </c>
-      <c r="T4" s="0">
-        <v>0</v>
-      </c>
-      <c r="U4" s="0">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>213.33000000000001</v>
       </c>
-      <c r="V4" s="0">
-        <v>0</v>
-      </c>
-      <c r="W4" s="0">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z4" s="1" t="s">
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z4" s="10" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>28</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5">
         <v>36</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F5" s="0">
+      <c r="E5" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="F5">
         <v>580.5</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>179.71000000000001</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>205.66999999999999</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>59.670000000000002</v>
       </c>
-      <c r="J5" s="0">
+      <c r="J5">
         <v>100</v>
       </c>
-      <c r="K5" s="0">
+      <c r="K5">
         <v>46</v>
       </c>
-      <c r="L5" s="0">
-        <v>0</v>
-      </c>
-      <c r="M5" s="0">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>45.560000000000002</v>
       </c>
-      <c r="N5" s="0">
+      <c r="N5">
         <v>58.329999999999998</v>
       </c>
-      <c r="O5" s="0">
+      <c r="O5">
         <v>45.020000000000003</v>
       </c>
-      <c r="P5" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="0">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>30.800000000000001</v>
       </c>
-      <c r="R5" s="0">
-        <v>0</v>
-      </c>
-      <c r="S5" s="0">
-        <v>0</v>
-      </c>
-      <c r="T5" s="0">
-        <v>0</v>
-      </c>
-      <c r="U5" s="0">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>195.12</v>
       </c>
-      <c r="V5" s="0">
-        <v>0</v>
-      </c>
-      <c r="W5" s="0">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z5" s="1" t="s">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z5" s="10" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>32</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6">
         <v>50</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F6" s="0">
+      <c r="E6" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="F6">
         <v>558.16999999999996</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>73.299999999999997</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>193.97</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>63.299999999999997</v>
       </c>
-      <c r="J6" s="0">
+      <c r="J6">
         <v>90</v>
       </c>
-      <c r="K6" s="0">
+      <c r="K6">
         <v>40.670000000000002</v>
       </c>
-      <c r="L6" s="0">
-        <v>0</v>
-      </c>
-      <c r="M6" s="0">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>50.420000000000002</v>
       </c>
-      <c r="N6" s="0">
-        <v>0</v>
-      </c>
-      <c r="O6" s="0">
-        <v>0</v>
-      </c>
-      <c r="P6" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="0">
-        <v>0</v>
-      </c>
-      <c r="R6" s="0">
-        <v>0</v>
-      </c>
-      <c r="S6" s="0">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>22.879999999999999</v>
       </c>
-      <c r="T6" s="0">
-        <v>0</v>
-      </c>
-      <c r="U6" s="0">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>290.91000000000003</v>
       </c>
-      <c r="V6" s="0">
-        <v>0</v>
-      </c>
-      <c r="W6" s="0">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z6" s="1" t="s">
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z6" s="10" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>34</v>
       </c>
-      <c r="C7" s="0">
+      <c r="C7">
         <v>23</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F7" s="0">
+      <c r="E7" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="F7">
         <v>504.32999999999998</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>181.18000000000001</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>142.75999999999999</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>44.759999999999998</v>
       </c>
-      <c r="J7" s="0">
+      <c r="J7">
         <v>70</v>
       </c>
-      <c r="K7" s="0">
+      <c r="K7">
         <v>28</v>
       </c>
-      <c r="L7" s="0">
-        <v>0</v>
-      </c>
-      <c r="M7" s="0">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>56.149999999999999</v>
       </c>
-      <c r="N7" s="0">
+      <c r="N7">
         <v>69.180000000000007</v>
       </c>
-      <c r="O7" s="0">
-        <v>0</v>
-      </c>
-      <c r="P7" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="0">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>42.799999999999997</v>
       </c>
-      <c r="R7" s="0">
-        <v>0</v>
-      </c>
-      <c r="S7" s="0">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>13.050000000000001</v>
       </c>
-      <c r="T7" s="0">
-        <v>0</v>
-      </c>
-      <c r="U7" s="0">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>180.38999999999999</v>
       </c>
-      <c r="V7" s="0">
-        <v>0</v>
-      </c>
-      <c r="W7" s="0">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z7" s="1" t="s">
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z7" s="10" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>58</v>
       </c>
-      <c r="C8" s="0">
+      <c r="C8">
         <v>110</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F8" s="0">
+      <c r="E8" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="F8">
         <v>418.02999999999997</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>131.99000000000001</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>189.27000000000001</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>65.939999999999998</v>
       </c>
-      <c r="J8" s="0">
+      <c r="J8">
         <v>80</v>
       </c>
-      <c r="K8" s="0">
+      <c r="K8">
         <v>43.329999999999998</v>
       </c>
-      <c r="L8" s="0">
-        <v>0</v>
-      </c>
-      <c r="M8" s="0">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>59.189999999999998</v>
       </c>
-      <c r="N8" s="0">
-        <v>0</v>
-      </c>
-      <c r="O8" s="0">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>44.020000000000003</v>
       </c>
-      <c r="P8" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="0">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>28.780000000000001</v>
       </c>
-      <c r="R8" s="0">
-        <v>0</v>
-      </c>
-      <c r="S8" s="0">
-        <v>0</v>
-      </c>
-      <c r="T8" s="0">
-        <v>0</v>
-      </c>
-      <c r="U8" s="0">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>96.769999999999996</v>
       </c>
-      <c r="V8" s="0">
-        <v>0</v>
-      </c>
-      <c r="W8" s="0">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z8" s="1" t="s">
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z8" s="10" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>48</v>
       </c>
-      <c r="C9" s="0">
+      <c r="C9">
         <v>45</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F9" s="0">
+      <c r="E9" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="F9">
         <v>373.13999999999999</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9">
         <v>144.44</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>190.59999999999999</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>59.350000000000001</v>
       </c>
-      <c r="J9" s="0">
+      <c r="J9">
         <v>90</v>
       </c>
-      <c r="K9" s="0">
+      <c r="K9">
         <v>41.25</v>
       </c>
-      <c r="L9" s="0">
-        <v>0</v>
-      </c>
-      <c r="M9" s="0">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>46.539999999999999</v>
       </c>
-      <c r="N9" s="0">
+      <c r="N9">
         <v>61.039999999999999</v>
       </c>
-      <c r="O9" s="0">
-        <v>0</v>
-      </c>
-      <c r="P9" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="0">
-        <v>0</v>
-      </c>
-      <c r="R9" s="0">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>5.0499999999999998</v>
       </c>
-      <c r="S9" s="0">
+      <c r="S9">
         <v>31.809999999999999</v>
       </c>
-      <c r="T9" s="0">
-        <v>0</v>
-      </c>
-      <c r="U9" s="0">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>38.100000000000001</v>
       </c>
-      <c r="V9" s="0">
-        <v>0</v>
-      </c>
-      <c r="W9" s="0">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z9" s="1" t="s">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y9" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z9" s="10" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>56</v>
       </c>
-      <c r="C10" s="0">
+      <c r="C10">
         <v>66</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F10" s="0">
+      <c r="E10" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="F10">
         <v>343.38</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>144.33000000000001</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>151.99000000000001</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>67.590000000000003</v>
       </c>
-      <c r="J10" s="0">
+      <c r="J10">
         <v>40</v>
       </c>
-      <c r="K10" s="0">
+      <c r="K10">
         <v>44.399999999999999</v>
       </c>
-      <c r="L10" s="0">
-        <v>0</v>
-      </c>
-      <c r="M10" s="0">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>51.409999999999997</v>
       </c>
-      <c r="N10" s="0">
+      <c r="N10">
         <v>40.990000000000002</v>
       </c>
-      <c r="O10" s="0">
-        <v>0</v>
-      </c>
-      <c r="P10" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="0">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>43.399999999999999</v>
       </c>
-      <c r="R10" s="0">
-        <v>0</v>
-      </c>
-      <c r="S10" s="0">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>8.5299999999999994</v>
       </c>
-      <c r="T10" s="0">
-        <v>0</v>
-      </c>
-      <c r="U10" s="0">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>47.060000000000002</v>
       </c>
-      <c r="V10" s="0">
-        <v>0</v>
-      </c>
-      <c r="W10" s="0">
-        <v>0</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z10" s="1" t="s">
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y10" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z10" s="10" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="B11" s="0">
+      <c r="B11">
         <v>70</v>
       </c>
-      <c r="C11" s="0">
+      <c r="C11">
         <v>67</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F11" s="0">
+      <c r="E11" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="F11">
         <v>376.86000000000001</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>161.02000000000001</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>157.50999999999999</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>61.509999999999998</v>
       </c>
-      <c r="J11" s="0">
+      <c r="J11">
         <v>60</v>
       </c>
-      <c r="K11" s="0">
+      <c r="K11">
         <v>36</v>
       </c>
-      <c r="L11" s="0">
-        <v>0</v>
-      </c>
-      <c r="M11" s="0">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>50.579999999999998</v>
       </c>
-      <c r="N11" s="0">
+      <c r="N11">
         <v>62.299999999999997</v>
       </c>
-      <c r="O11" s="0">
-        <v>0</v>
-      </c>
-      <c r="P11" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="0">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>30.120000000000001</v>
       </c>
-      <c r="R11" s="0">
-        <v>0</v>
-      </c>
-      <c r="S11" s="0">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
         <v>18.010000000000002</v>
       </c>
-      <c r="T11" s="0">
-        <v>0</v>
-      </c>
-      <c r="U11" s="0">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>58.329999999999998</v>
       </c>
-      <c r="V11" s="0">
-        <v>0</v>
-      </c>
-      <c r="W11" s="0">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z11" s="1" t="s">
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z11" s="10" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>74</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12">
         <v>48</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F12" s="0">
+      <c r="E12" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="F12">
         <v>225.12</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12">
         <v>70.900000000000006</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>154.22</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>54.719999999999999</v>
       </c>
-      <c r="J12" s="0">
+      <c r="J12">
         <v>60</v>
       </c>
-      <c r="K12" s="0">
+      <c r="K12">
         <v>39.5</v>
       </c>
-      <c r="L12" s="0">
-        <v>0</v>
-      </c>
-      <c r="M12" s="0">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>54.289999999999999</v>
       </c>
-      <c r="N12" s="0">
-        <v>0</v>
-      </c>
-      <c r="O12" s="0">
-        <v>0</v>
-      </c>
-      <c r="P12" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="0">
-        <v>0</v>
-      </c>
-      <c r="R12" s="0">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>14.380000000000001</v>
       </c>
-      <c r="S12" s="0">
+      <c r="S12">
         <v>2.23</v>
       </c>
-      <c r="T12" s="0">
-        <v>0</v>
-      </c>
-      <c r="U12" s="0">
-        <v>0</v>
-      </c>
-      <c r="V12" s="0">
-        <v>0</v>
-      </c>
-      <c r="W12" s="0">
-        <v>0</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z12" s="1" t="s">
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z12" s="10" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>65</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>53</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="F13" s="0">
+      <c r="E13" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="F13">
         <v>370.51999999999998</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>186.63</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>164.38</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>50.380000000000003</v>
       </c>
-      <c r="J13" s="0">
+      <c r="J13">
         <v>70</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <v>44</v>
       </c>
-      <c r="L13" s="0">
-        <v>0</v>
-      </c>
-      <c r="M13" s="0">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
         <v>41.979999999999997</v>
       </c>
-      <c r="N13" s="0">
+      <c r="N13">
         <v>64.349999999999994</v>
       </c>
-      <c r="O13" s="0">
-        <v>0</v>
-      </c>
-      <c r="P13" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="0">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>31.27</v>
       </c>
-      <c r="R13" s="0">
-        <v>0</v>
-      </c>
-      <c r="S13" s="0">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>49.020000000000003</v>
       </c>
-      <c r="T13" s="0">
-        <v>0</v>
-      </c>
-      <c r="U13" s="0">
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
         <v>19.510000000000002</v>
       </c>
-      <c r="V13" s="0">
-        <v>0</v>
-      </c>
-      <c r="W13" s="0">
-        <v>0</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="Z13" s="1" t="s">
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z13" s="10" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>54</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>70</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14">
         <v>453.19</v>
       </c>
-      <c r="G14" s="0">
+      <c r="G14">
         <v>206.44999999999999</v>
       </c>
-      <c r="H14" s="0">
+      <c r="H14">
         <v>126.73999999999999</v>
       </c>
-      <c r="I14" s="0">
+      <c r="I14">
         <v>45.240000000000002</v>
       </c>
-      <c r="J14" s="0">
+      <c r="J14">
         <v>50</v>
       </c>
-      <c r="K14" s="0">
+      <c r="K14">
         <v>31.5</v>
       </c>
-      <c r="L14" s="0">
-        <v>0</v>
-      </c>
-      <c r="M14" s="0">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>46.590000000000003</v>
       </c>
-      <c r="N14" s="0">
+      <c r="N14">
         <v>65.409999999999997</v>
       </c>
-      <c r="O14" s="0">
-        <v>0</v>
-      </c>
-      <c r="P14" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="0">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>53.530000000000001</v>
       </c>
-      <c r="R14" s="0">
-        <v>0</v>
-      </c>
-      <c r="S14" s="0">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
         <v>40.920000000000002</v>
       </c>
-      <c r="T14" s="0">
-        <v>0</v>
-      </c>
-      <c r="U14" s="0">
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
         <v>120</v>
       </c>
-      <c r="V14" s="0">
-        <v>0</v>
-      </c>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0"/>
-      <c r="Y14" s="1" t="s">
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="Z14" s="0"/>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="B15" s="0">
+      <c r="B15">
         <v>53</v>
       </c>
-      <c r="C15" s="0">
+      <c r="C15">
         <v>73</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F15" s="0">
+      <c r="E15" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="F15">
         <v>448.19</v>
       </c>
-      <c r="G15" s="0">
+      <c r="G15">
         <v>109.09999999999999</v>
       </c>
-      <c r="H15" s="0">
+      <c r="H15">
         <v>162.62</v>
       </c>
-      <c r="I15" s="0">
+      <c r="I15">
         <v>55.289999999999999</v>
       </c>
-      <c r="J15" s="0">
+      <c r="J15">
         <v>80</v>
       </c>
-      <c r="K15" s="0">
+      <c r="K15">
         <v>27.329999999999998</v>
       </c>
-      <c r="L15" s="0">
-        <v>0</v>
-      </c>
-      <c r="M15" s="0">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>13.51</v>
       </c>
-      <c r="N15" s="0">
+      <c r="N15">
         <v>46.869999999999997</v>
       </c>
-      <c r="O15" s="0">
-        <v>0</v>
-      </c>
-      <c r="P15" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="0">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>40.369999999999997</v>
       </c>
-      <c r="R15" s="0">
-        <v>0</v>
-      </c>
-      <c r="S15" s="0">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>8.3499999999999996</v>
       </c>
-      <c r="T15" s="0">
-        <v>0</v>
-      </c>
-      <c r="U15" s="0">
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
         <v>176.47</v>
       </c>
-      <c r="V15" s="0">
-        <v>0</v>
-      </c>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0"/>
-      <c r="Y15" s="1" t="s">
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="Z15" s="0"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="B16" s="0">
+      <c r="B16">
         <v>45</v>
       </c>
-      <c r="C16" s="0">
+      <c r="C16">
         <v>68</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F16" s="0">
+      <c r="E16" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="F16">
         <v>473.04000000000002</v>
       </c>
-      <c r="G16" s="0">
+      <c r="G16">
         <v>127.91</v>
       </c>
-      <c r="H16" s="0">
+      <c r="H16">
         <v>121.59999999999999</v>
       </c>
-      <c r="I16" s="0">
+      <c r="I16">
         <v>36.829999999999998</v>
       </c>
-      <c r="J16" s="0">
+      <c r="J16">
         <v>60</v>
       </c>
-      <c r="K16" s="0">
+      <c r="K16">
         <v>24.77</v>
       </c>
-      <c r="L16" s="0">
-        <v>0</v>
-      </c>
-      <c r="M16" s="0">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>48.600000000000001</v>
       </c>
-      <c r="N16" s="0">
+      <c r="N16">
         <v>31.149999999999999</v>
       </c>
-      <c r="O16" s="0">
+      <c r="O16">
         <v>5.7800000000000002</v>
       </c>
-      <c r="P16" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="0">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>42.380000000000003</v>
       </c>
-      <c r="R16" s="0">
-        <v>0</v>
-      </c>
-      <c r="S16" s="0">
-        <v>0</v>
-      </c>
-      <c r="T16" s="0">
-        <v>0</v>
-      </c>
-      <c r="U16" s="0">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
         <v>223.53</v>
       </c>
-      <c r="V16" s="0">
-        <v>0</v>
-      </c>
-      <c r="W16" s="0"/>
-      <c r="X16" s="0"/>
-      <c r="Y16" s="1" t="s">
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="Z16" s="0"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="B17" s="0">
+      <c r="B17">
         <v>40</v>
       </c>
-      <c r="C17" s="0">
+      <c r="C17">
         <v>37</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="F17" s="0">
+      <c r="E17" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="F17">
         <v>484.11000000000001</v>
       </c>
-      <c r="G17" s="0">
+      <c r="G17">
         <v>107.75</v>
       </c>
-      <c r="H17" s="0">
+      <c r="H17">
         <v>158.97</v>
       </c>
-      <c r="I17" s="0">
+      <c r="I17">
         <v>66.969999999999999</v>
       </c>
-      <c r="J17" s="0">
+      <c r="J17">
         <v>50</v>
       </c>
-      <c r="K17" s="0">
+      <c r="K17">
         <v>42</v>
       </c>
-      <c r="L17" s="0">
-        <v>0</v>
-      </c>
-      <c r="M17" s="0">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>33.640000000000001</v>
       </c>
-      <c r="N17" s="0">
-        <v>0</v>
-      </c>
-      <c r="O17" s="0">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>56.869999999999997</v>
       </c>
-      <c r="P17" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="0">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>17.239999999999998</v>
       </c>
-      <c r="R17" s="0">
-        <v>0</v>
-      </c>
-      <c r="S17" s="0">
-        <v>0</v>
-      </c>
-      <c r="T17" s="0">
-        <v>0</v>
-      </c>
-      <c r="U17" s="0">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <v>217.38999999999999</v>
       </c>
-      <c r="V17" s="0">
-        <v>0</v>
-      </c>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0"/>
-      <c r="Y17" s="1" t="s">
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="Z17" s="0"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="B18" s="0">
+      <c r="B18">
         <v>30</v>
       </c>
-      <c r="C18" s="0">
+      <c r="C18">
         <v>44</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="F18" s="0">
+      <c r="E18" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="F18">
         <v>541.42999999999995</v>
       </c>
-      <c r="G18" s="0">
+      <c r="G18">
         <v>129.31999999999999</v>
       </c>
-      <c r="H18" s="0">
+      <c r="H18">
         <v>182.47999999999999</v>
       </c>
-      <c r="I18" s="0">
+      <c r="I18">
         <v>58.810000000000002</v>
       </c>
-      <c r="J18" s="0">
+      <c r="J18">
         <v>80</v>
       </c>
-      <c r="K18" s="0">
+      <c r="K18">
         <v>43.670000000000002</v>
       </c>
-      <c r="L18" s="0">
-        <v>0</v>
-      </c>
-      <c r="M18" s="0">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>53.909999999999997</v>
       </c>
-      <c r="N18" s="0">
+      <c r="N18">
         <v>2.6699999999999999</v>
       </c>
-      <c r="O18" s="0">
-        <v>0</v>
-      </c>
-      <c r="P18" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="0">
-        <v>0</v>
-      </c>
-      <c r="R18" s="0">
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>31.530000000000001</v>
       </c>
-      <c r="S18" s="0">
+      <c r="S18">
         <v>41.210000000000001</v>
       </c>
-      <c r="T18" s="0">
-        <v>0</v>
-      </c>
-      <c r="U18" s="0">
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
         <v>229.63</v>
       </c>
-      <c r="V18" s="0">
-        <v>0</v>
-      </c>
-      <c r="W18" s="0"/>
-      <c r="X18" s="0"/>
-      <c r="Y18" s="1" t="s">
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="Z18" s="0"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="B19" s="0">
+      <c r="B19">
         <v>42</v>
       </c>
-      <c r="C19" s="0">
+      <c r="C19">
         <v>60</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19">
         <v>480.56999999999999</v>
       </c>
-      <c r="G19" s="0">
+      <c r="G19">
         <v>201.37</v>
       </c>
-      <c r="H19" s="0">
+      <c r="H19">
         <v>140.74000000000001</v>
       </c>
-      <c r="I19" s="0">
+      <c r="I19">
         <v>60.740000000000002</v>
       </c>
-      <c r="J19" s="0">
+      <c r="J19">
         <v>80</v>
       </c>
-      <c r="K19" s="0">
-        <v>0</v>
-      </c>
-      <c r="L19" s="0">
-        <v>0</v>
-      </c>
-      <c r="M19" s="0">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>62.450000000000003</v>
       </c>
-      <c r="N19" s="0">
+      <c r="N19">
         <v>36.590000000000003</v>
       </c>
-      <c r="O19" s="0">
-        <v>0</v>
-      </c>
-      <c r="P19" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="0">
-        <v>0</v>
-      </c>
-      <c r="R19" s="0">
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>53.689999999999998</v>
       </c>
-      <c r="S19" s="0">
+      <c r="S19">
         <v>48.640000000000001</v>
       </c>
-      <c r="T19" s="0">
-        <v>0</v>
-      </c>
-      <c r="U19" s="0">
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
         <v>138.46000000000001</v>
       </c>
-      <c r="V19" s="0">
-        <v>0</v>
-      </c>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0"/>
-      <c r="Y19" s="1" t="s">
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="Z19" s="0"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="B20" s="0">
+      <c r="B20">
         <v>21</v>
       </c>
-      <c r="C20" s="0">
+      <c r="C20">
         <v>43</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="F20" s="0">
+      <c r="E20" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="F20">
         <v>572.89999999999998</v>
       </c>
-      <c r="G20" s="0">
+      <c r="G20">
         <v>158.78</v>
       </c>
-      <c r="H20" s="0">
+      <c r="H20">
         <v>139.12</v>
       </c>
-      <c r="I20" s="0">
+      <c r="I20">
         <v>65.120000000000005</v>
       </c>
-      <c r="J20" s="0">
+      <c r="J20">
         <v>35</v>
       </c>
-      <c r="K20" s="0">
+      <c r="K20">
         <v>39</v>
       </c>
-      <c r="L20" s="0">
-        <v>0</v>
-      </c>
-      <c r="M20" s="0">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>48.640000000000001</v>
       </c>
-      <c r="N20" s="0">
+      <c r="N20">
         <v>36.539999999999999</v>
       </c>
-      <c r="O20" s="0">
+      <c r="O20">
         <v>25.75</v>
       </c>
-      <c r="P20" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="0">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>47.850000000000001</v>
       </c>
-      <c r="R20" s="0">
-        <v>0</v>
-      </c>
-      <c r="S20" s="0">
-        <v>0</v>
-      </c>
-      <c r="T20" s="0">
-        <v>0</v>
-      </c>
-      <c r="U20" s="0">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <v>275</v>
       </c>
-      <c r="V20" s="0">
-        <v>0</v>
-      </c>
-      <c r="W20" s="0"/>
-      <c r="X20" s="0"/>
-      <c r="Y20" s="1" t="s">
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="Z20" s="0"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="B21" s="0">
+      <c r="B21">
         <v>81</v>
       </c>
-      <c r="C21" s="0">
+      <c r="C21">
         <v>85</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21">
         <v>315.80000000000001</v>
       </c>
-      <c r="G21" s="0">
+      <c r="G21">
         <v>134.22999999999999</v>
       </c>
-      <c r="H21" s="0">
+      <c r="H21">
         <v>127.52</v>
       </c>
-      <c r="I21" s="0">
+      <c r="I21">
         <v>32.270000000000003</v>
       </c>
-      <c r="J21" s="0">
+      <c r="J21">
         <v>95.25</v>
       </c>
-      <c r="K21" s="0">
-        <v>0</v>
-      </c>
-      <c r="L21" s="0">
-        <v>0</v>
-      </c>
-      <c r="M21" s="0">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>9.3599999999999994</v>
       </c>
-      <c r="N21" s="0">
+      <c r="N21">
         <v>32.850000000000001</v>
       </c>
-      <c r="O21" s="0">
-        <v>0</v>
-      </c>
-      <c r="P21" s="0">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>27.899999999999999</v>
       </c>
-      <c r="Q21" s="0">
-        <v>0</v>
-      </c>
-      <c r="R21" s="0">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>32.539999999999999</v>
       </c>
-      <c r="S21" s="0">
+      <c r="S21">
         <v>31.579999999999998</v>
       </c>
-      <c r="T21" s="0">
-        <v>0</v>
-      </c>
-      <c r="U21" s="0">
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
         <v>54.049999999999997</v>
       </c>
-      <c r="V21" s="0">
-        <v>0</v>
-      </c>
-      <c r="W21" s="0"/>
-      <c r="X21" s="0"/>
-      <c r="Y21" s="1" t="s">
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="Z21" s="0"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="B22" s="0">
+      <c r="B22">
         <v>45</v>
       </c>
-      <c r="C22" s="0">
+      <c r="C22">
         <v>42</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22">
         <v>261.79000000000002</v>
       </c>
-      <c r="G22" s="0">
+      <c r="G22">
         <v>77.519999999999996</v>
       </c>
-      <c r="H22" s="0">
+      <c r="H22">
         <v>142.16</v>
       </c>
-      <c r="I22" s="0">
+      <c r="I22">
         <v>24.210000000000001</v>
       </c>
-      <c r="J22" s="0">
+      <c r="J22">
         <v>89.25</v>
       </c>
-      <c r="K22" s="0">
+      <c r="K22">
         <v>28.699999999999999</v>
       </c>
-      <c r="L22" s="0">
-        <v>0</v>
-      </c>
-      <c r="M22" s="0">
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>32.18</v>
       </c>
-      <c r="N22" s="0">
+      <c r="N22">
         <v>37.740000000000002</v>
       </c>
-      <c r="O22" s="0">
+      <c r="O22">
         <v>5.9800000000000004</v>
       </c>
-      <c r="P22" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="0">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>1.6200000000000001</v>
       </c>
-      <c r="R22" s="0">
-        <v>0</v>
-      </c>
-      <c r="S22" s="0">
-        <v>0</v>
-      </c>
-      <c r="T22" s="0">
-        <v>0</v>
-      </c>
-      <c r="U22" s="0">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
         <v>42.109999999999999</v>
       </c>
-      <c r="V22" s="0">
-        <v>0</v>
-      </c>
-      <c r="W22" s="0"/>
-      <c r="X22" s="0"/>
-      <c r="Y22" s="1" t="s">
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="Z22" s="0"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="B23" s="0">
+      <c r="B23">
         <v>57</v>
       </c>
-      <c r="C23" s="0">
+      <c r="C23">
         <v>19</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23">
         <v>396.56999999999999</v>
       </c>
-      <c r="G23" s="0">
+      <c r="G23">
         <v>168.47999999999999</v>
       </c>
-      <c r="H23" s="0">
+      <c r="H23">
         <v>203.84999999999999</v>
       </c>
-      <c r="I23" s="0">
+      <c r="I23">
         <v>64.099999999999994</v>
       </c>
-      <c r="J23" s="0">
+      <c r="J23">
         <v>98.5</v>
       </c>
-      <c r="K23" s="0">
+      <c r="K23">
         <v>41.25</v>
       </c>
-      <c r="L23" s="0">
-        <v>0</v>
-      </c>
-      <c r="M23" s="0">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>54.780000000000001</v>
       </c>
-      <c r="N23" s="0">
+      <c r="N23">
         <v>31.120000000000001</v>
       </c>
-      <c r="O23" s="0">
+      <c r="O23">
         <v>36.670000000000002</v>
       </c>
-      <c r="P23" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="0">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>45.909999999999997</v>
       </c>
-      <c r="R23" s="0">
-        <v>0</v>
-      </c>
-      <c r="S23" s="0">
-        <v>0</v>
-      </c>
-      <c r="T23" s="0">
-        <v>0</v>
-      </c>
-      <c r="U23" s="0">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <v>24.239999999999998</v>
       </c>
-      <c r="V23" s="0">
-        <v>0</v>
-      </c>
-      <c r="W23" s="0"/>
-      <c r="X23" s="0"/>
-      <c r="Y23" s="1" t="s">
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="Z23" s="0"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="B24" s="0">
+      <c r="B24">
         <v>44</v>
       </c>
-      <c r="C24" s="0">
+      <c r="C24">
         <v>16</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24">
         <v>461.48000000000002</v>
       </c>
-      <c r="G24" s="0">
+      <c r="G24">
         <v>148.52000000000001</v>
       </c>
-      <c r="H24" s="0">
+      <c r="H24">
         <v>215.66</v>
       </c>
-      <c r="I24" s="0">
+      <c r="I24">
         <v>57.490000000000002</v>
       </c>
-      <c r="J24" s="0">
+      <c r="J24">
         <v>158.16999999999999</v>
       </c>
-      <c r="K24" s="0">
-        <v>0</v>
-      </c>
-      <c r="L24" s="0">
-        <v>0</v>
-      </c>
-      <c r="M24" s="0">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>51.469999999999999</v>
       </c>
-      <c r="N24" s="0">
-        <v>0</v>
-      </c>
-      <c r="O24" s="0">
-        <v>0</v>
-      </c>
-      <c r="P24" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="0">
-        <v>0</v>
-      </c>
-      <c r="R24" s="0">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>68.219999999999999</v>
       </c>
-      <c r="S24" s="0">
+      <c r="S24">
         <v>28.829999999999998</v>
       </c>
-      <c r="T24" s="0">
-        <v>0</v>
-      </c>
-      <c r="U24" s="0">
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>97.299999999999997</v>
       </c>
-      <c r="V24" s="0">
-        <v>0</v>
-      </c>
-      <c r="W24" s="0"/>
-      <c r="X24" s="0"/>
-      <c r="Y24" s="1" t="s">
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="Z24" s="0"/>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="B25" s="0">
+      <c r="B25">
         <v>18</v>
       </c>
-      <c r="C25" s="0">
+      <c r="C25">
         <v>44</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25">
         <v>717.28999999999996</v>
       </c>
-      <c r="G25" s="0">
+      <c r="G25">
         <v>164.09999999999999</v>
       </c>
-      <c r="H25" s="0">
+      <c r="H25">
         <v>235.94999999999999</v>
       </c>
-      <c r="I25" s="0">
+      <c r="I25">
         <v>63.25</v>
       </c>
-      <c r="J25" s="0">
+      <c r="J25">
         <v>172.69999999999999</v>
       </c>
-      <c r="K25" s="0">
-        <v>0</v>
-      </c>
-      <c r="L25" s="0">
-        <v>0</v>
-      </c>
-      <c r="M25" s="0">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>48.770000000000003</v>
       </c>
-      <c r="N25" s="0">
+      <c r="N25">
         <v>45.57</v>
       </c>
-      <c r="O25" s="0">
-        <v>0</v>
-      </c>
-      <c r="P25" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="0">
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>3.7999999999999998</v>
       </c>
-      <c r="R25" s="0">
-        <v>0</v>
-      </c>
-      <c r="S25" s="0">
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>20.32</v>
       </c>
-      <c r="T25" s="0">
+      <c r="T25">
         <v>45.640000000000001</v>
       </c>
-      <c r="U25" s="0">
+      <c r="U25">
         <v>317.24000000000001</v>
       </c>
-      <c r="V25" s="0">
-        <v>0</v>
-      </c>
-      <c r="W25" s="0"/>
-      <c r="X25" s="0"/>
-      <c r="Y25" s="1" t="s">
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="Z25" s="0"/>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="B26" s="0">
+      <c r="B26">
         <v>14</v>
       </c>
-      <c r="C26" s="0">
+      <c r="C26">
         <v>40</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26">
         <v>766.03999999999996</v>
       </c>
-      <c r="G26" s="0">
+      <c r="G26">
         <v>197.12</v>
       </c>
-      <c r="H26" s="0">
+      <c r="H26">
         <v>211.47</v>
       </c>
-      <c r="I26" s="0">
+      <c r="I26">
         <v>60.670000000000002</v>
       </c>
-      <c r="J26" s="0">
+      <c r="J26">
         <v>119.3</v>
       </c>
-      <c r="K26" s="0">
+      <c r="K26">
         <v>31.5</v>
       </c>
-      <c r="L26" s="0">
-        <v>0</v>
-      </c>
-      <c r="M26" s="0">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>62.359999999999999</v>
       </c>
-      <c r="N26" s="0">
+      <c r="N26">
         <v>47.479999999999997</v>
       </c>
-      <c r="O26" s="0">
+      <c r="O26">
         <v>21.309999999999999</v>
       </c>
-      <c r="P26" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="0">
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>65.969999999999999</v>
       </c>
-      <c r="R26" s="0">
-        <v>0</v>
-      </c>
-      <c r="S26" s="0">
-        <v>0</v>
-      </c>
-      <c r="T26" s="0">
-        <v>0</v>
-      </c>
-      <c r="U26" s="0">
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
         <v>357.44999999999999</v>
       </c>
-      <c r="V26" s="0">
-        <v>0</v>
-      </c>
-      <c r="W26" s="0"/>
-      <c r="X26" s="0"/>
-      <c r="Y26" s="1" t="s">
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="Z26" s="0"/>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="B27" s="0">
+      <c r="B27">
         <v>20</v>
       </c>
-      <c r="C27" s="0">
+      <c r="C27">
         <v>70</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="F27" s="0">
+      <c r="F27">
         <v>769.07000000000005</v>
       </c>
-      <c r="G27" s="0">
+      <c r="G27">
         <v>192.25</v>
       </c>
-      <c r="H27" s="0">
+      <c r="H27">
         <v>255.08000000000001</v>
       </c>
-      <c r="I27" s="0">
+      <c r="I27">
         <v>78.950000000000003</v>
       </c>
-      <c r="J27" s="0">
+      <c r="J27">
         <v>126.13</v>
       </c>
-      <c r="K27" s="0">
-        <v>0</v>
-      </c>
-      <c r="L27" s="0">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
         <v>50</v>
       </c>
-      <c r="M27" s="0">
+      <c r="M27">
         <v>52.280000000000001</v>
       </c>
-      <c r="N27" s="0">
+      <c r="N27">
         <v>43.299999999999997</v>
       </c>
-      <c r="O27" s="0">
-        <v>0</v>
-      </c>
-      <c r="P27" s="0">
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>13.380000000000001</v>
       </c>
-      <c r="Q27" s="0">
-        <v>0</v>
-      </c>
-      <c r="R27" s="0">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <v>31.710000000000001</v>
       </c>
-      <c r="S27" s="0">
+      <c r="S27">
         <v>51.579999999999998</v>
       </c>
-      <c r="T27" s="0">
-        <v>0</v>
-      </c>
-      <c r="U27" s="0">
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
         <v>321.74000000000001</v>
       </c>
-      <c r="V27" s="0">
-        <v>0</v>
-      </c>
-      <c r="W27" s="0">
-        <v>0</v>
-      </c>
-      <c r="X27" s="0"/>
-      <c r="Y27" s="1" t="s">
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="Z27" s="0"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="B28" s="0">
+      <c r="B28">
         <v>18</v>
       </c>
-      <c r="C28" s="0">
+      <c r="C28">
         <v>16</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="F28" s="0">
+      <c r="F28">
         <v>672.60000000000002</v>
       </c>
-      <c r="G28" s="0">
+      <c r="G28">
         <v>166.5</v>
       </c>
-      <c r="H28" s="0">
+      <c r="H28">
         <v>229.18000000000001</v>
       </c>
-      <c r="I28" s="0">
+      <c r="I28">
         <v>48.109999999999999</v>
       </c>
-      <c r="J28" s="0">
+      <c r="J28">
         <v>109.97</v>
       </c>
-      <c r="K28" s="0">
+      <c r="K28">
         <v>31.100000000000001</v>
       </c>
-      <c r="L28" s="0">
+      <c r="L28">
         <v>40</v>
       </c>
-      <c r="M28" s="0">
+      <c r="M28">
         <v>56.060000000000002</v>
       </c>
-      <c r="N28" s="0">
+      <c r="N28">
         <v>41.280000000000001</v>
       </c>
-      <c r="O28" s="0">
+      <c r="O28">
         <v>43.369999999999997</v>
       </c>
-      <c r="P28" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="0">
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>25.789999999999999</v>
       </c>
-      <c r="R28" s="0">
-        <v>0</v>
-      </c>
-      <c r="S28" s="0">
-        <v>0</v>
-      </c>
-      <c r="T28" s="0">
-        <v>0</v>
-      </c>
-      <c r="U28" s="0">
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
         <v>276.92000000000002</v>
       </c>
-      <c r="V28" s="0">
-        <v>0</v>
-      </c>
-      <c r="W28" s="0"/>
-      <c r="X28" s="0"/>
-      <c r="Y28" s="1" t="s">
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="Z28" s="0"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="B29" s="0">
+      <c r="B29">
         <v>53</v>
       </c>
-      <c r="C29" s="0">
+      <c r="C29">
         <v>34</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="F29" s="0">
+      <c r="F29">
         <v>232.22999999999999</v>
       </c>
-      <c r="G29" s="0">
+      <c r="G29">
         <v>37.909999999999997</v>
       </c>
-      <c r="H29" s="0">
+      <c r="H29">
         <v>214.31999999999999</v>
       </c>
-      <c r="I29" s="0">
+      <c r="I29">
         <v>74.819999999999993</v>
       </c>
-      <c r="J29" s="0">
+      <c r="J29">
         <v>139.5</v>
       </c>
-      <c r="K29" s="0">
-        <v>0</v>
-      </c>
-      <c r="L29" s="0">
-        <v>0</v>
-      </c>
-      <c r="M29" s="0">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>37.909999999999997</v>
       </c>
-      <c r="N29" s="0">
-        <v>0</v>
-      </c>
-      <c r="O29" s="0">
-        <v>0</v>
-      </c>
-      <c r="P29" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="0">
-        <v>0</v>
-      </c>
-      <c r="R29" s="0">
-        <v>0</v>
-      </c>
-      <c r="S29" s="0">
-        <v>0</v>
-      </c>
-      <c r="T29" s="0">
-        <v>0</v>
-      </c>
-      <c r="U29" s="0">
-        <v>0</v>
-      </c>
-      <c r="V29" s="0">
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
         <v>-20</v>
       </c>
-      <c r="W29" s="0"/>
-      <c r="X29" s="0"/>
-      <c r="Y29" s="0"/>
-      <c r="Z29" s="0"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="B30" s="0">
+      <c r="B30">
         <v>63</v>
       </c>
-      <c r="C30" s="0">
+      <c r="C30">
         <v>76</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="F30" s="0">
+      <c r="F30">
         <v>440.13</v>
       </c>
-      <c r="G30" s="0">
+      <c r="G30">
         <v>204.72</v>
       </c>
-      <c r="H30" s="0">
+      <c r="H30">
         <v>161.34</v>
       </c>
-      <c r="I30" s="0">
-        <v>0</v>
-      </c>
-      <c r="J30" s="0">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>49.75</v>
       </c>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
-      <c r="M30" s="0">
+      <c r="M30">
         <v>62.439999999999998</v>
       </c>
-      <c r="N30" s="0">
+      <c r="N30">
         <v>51.57</v>
       </c>
-      <c r="O30" s="0"/>
-      <c r="P30" s="0"/>
-      <c r="Q30" s="0"/>
-      <c r="R30" s="0">
+      <c r="R30">
         <v>47.579999999999998</v>
       </c>
-      <c r="S30" s="0">
+      <c r="S30">
         <v>18.399999999999999</v>
       </c>
-      <c r="T30" s="0"/>
-      <c r="U30" s="0">
+      <c r="U30">
         <v>103.7</v>
       </c>
-      <c r="V30" s="0">
-        <v>0</v>
-      </c>
-      <c r="W30" s="0"/>
-      <c r="X30" s="0"/>
-      <c r="Y30" s="0"/>
-      <c r="Z30" s="0"/>
+      <c r="V30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="B31" s="0">
+      <c r="B31">
         <v>55</v>
       </c>
-      <c r="C31" s="0">
+      <c r="C31">
         <v>77</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="F31" s="0">
+      <c r="F31">
         <v>473.77999999999997</v>
       </c>
-      <c r="G31" s="0">
+      <c r="G31">
         <v>205.41</v>
       </c>
-      <c r="H31" s="0">
+      <c r="H31">
         <v>164.84999999999999</v>
       </c>
-      <c r="I31" s="0">
+      <c r="I31">
         <v>65.310000000000002</v>
       </c>
-      <c r="J31" s="0">
+      <c r="J31">
         <v>124.5</v>
       </c>
-      <c r="K31" s="0">
-        <v>0</v>
-      </c>
-      <c r="L31" s="0">
-        <v>0</v>
-      </c>
-      <c r="M31" s="0">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>66.239999999999995</v>
       </c>
-      <c r="N31" s="0">
+      <c r="N31">
         <v>51.700000000000003</v>
       </c>
-      <c r="O31" s="0">
-        <v>0</v>
-      </c>
-      <c r="P31" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="0">
-        <v>0</v>
-      </c>
-      <c r="R31" s="0">
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
         <v>35.439999999999998</v>
       </c>
-      <c r="S31" s="0">
+      <c r="S31">
         <v>67.340000000000003</v>
       </c>
-      <c r="T31" s="0">
-        <v>0</v>
-      </c>
-      <c r="U31" s="0">
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
         <v>237.03999999999999</v>
       </c>
-      <c r="V31" s="0">
-        <v>0</v>
-      </c>
-      <c r="W31" s="0"/>
-      <c r="X31" s="0"/>
-      <c r="Y31" s="0"/>
-      <c r="Z31" s="0"/>
+      <c r="V31">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
